--- a/teaching/traditional_assets/database/data/sweden/sweden_electronics_consumer_office.xlsx
+++ b/teaching/traditional_assets/database/data/sweden/sweden_electronics_consumer_office.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="om_strax" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,115 +593,112 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.0281089258698941</v>
+        <v>0.04191447368421053</v>
       </c>
       <c r="H2">
-        <v>-0.02950075642965205</v>
+        <v>0.04039473684210527</v>
       </c>
       <c r="I2">
-        <v>-0.023822545689097</v>
+        <v>0.04442105263157895</v>
       </c>
       <c r="J2">
-        <v>-0.02083671541102408</v>
+        <v>0.03331578947368422</v>
       </c>
       <c r="K2">
-        <v>13.97</v>
+        <v>-1.18</v>
       </c>
       <c r="L2">
-        <v>0.1056732223903177</v>
+        <v>-0.007763157894736843</v>
       </c>
       <c r="M2">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2222932992163761</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9949892627057982</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.2222932992163761</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.9949892627057982</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>2.226</v>
+        <v>3.21</v>
       </c>
       <c r="V2">
-        <v>0.03559891252198944</v>
+        <v>0.04551900170164492</v>
       </c>
       <c r="W2">
-        <v>0.1344002621804675</v>
+        <v>-0.09632292851425925</v>
       </c>
       <c r="X2">
-        <v>0.1030119910715927</v>
+        <v>0.07921955487061981</v>
       </c>
       <c r="Y2">
-        <v>0.03138827110887479</v>
+        <v>-0.175542483384879</v>
       </c>
       <c r="Z2">
-        <v>4.366249358735097</v>
+        <v>7.388324502989355</v>
       </c>
       <c r="AA2">
-        <v>-0.2102515558475769</v>
+        <v>-0.02851283924575303</v>
       </c>
       <c r="AB2">
-        <v>0.08599060180706386</v>
+        <v>0.06319151084233424</v>
       </c>
       <c r="AC2">
-        <v>-0.2962421576546407</v>
+        <v>-0.09170435008808728</v>
       </c>
       <c r="AD2">
-        <v>25.149</v>
+        <v>31.53</v>
       </c>
       <c r="AE2">
-        <v>4.221702700493118</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>29.37070270049312</v>
+        <v>31.53</v>
       </c>
       <c r="AG2">
-        <v>27.14470270049312</v>
+        <v>28.32</v>
       </c>
       <c r="AH2">
-        <v>0.3195917097197073</v>
+        <v>0.3089661930426261</v>
       </c>
       <c r="AI2">
-        <v>0.5276739472466795</v>
+        <v>0.5527699859747546</v>
       </c>
       <c r="AJ2">
-        <v>0.3027018978937061</v>
+        <v>0.2865236746256576</v>
       </c>
       <c r="AK2">
-        <v>0.5079976369035289</v>
+        <v>0.5261006873490619</v>
       </c>
       <c r="AL2">
-        <v>3.407</v>
+        <v>3.457</v>
       </c>
       <c r="AM2">
-        <v>2.89</v>
+        <v>3.457</v>
       </c>
       <c r="AN2">
-        <v>-17.21355236139631</v>
+        <v>4.006353240152478</v>
       </c>
       <c r="AO2">
-        <v>-1.022894041678896</v>
+        <v>1.953138559444605</v>
       </c>
       <c r="AP2">
-        <v>-18.57953641375299</v>
+        <v>3.598475222363405</v>
       </c>
       <c r="AQ2">
-        <v>-1.205882352941176</v>
+        <v>1.953138559444605</v>
       </c>
     </row>
     <row r="3">
@@ -719,115 +718,112 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.02155388471177945</v>
+        <v>0.05699855699855701</v>
       </c>
       <c r="H3">
-        <v>-0.02155388471177945</v>
+        <v>0.05699855699855701</v>
       </c>
       <c r="I3">
-        <v>-0.005424732999988502</v>
+        <v>0.05432900432900433</v>
       </c>
       <c r="J3">
-        <v>-0.004064900826448783</v>
+        <v>0.02716450216450217</v>
       </c>
       <c r="K3">
-        <v>16.7</v>
+        <v>-0.09</v>
       </c>
       <c r="L3">
-        <v>0.139515455304929</v>
+        <v>-0.0006493506493506494</v>
       </c>
       <c r="M3">
-        <v>13.9</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.25</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.8323353293413174</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.9</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.8323353293413174</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>1.51</v>
+        <v>2.24</v>
       </c>
       <c r="V3">
-        <v>0.02715827338129496</v>
+        <v>0.03630470016207456</v>
       </c>
       <c r="W3">
-        <v>0.726086956521739</v>
+        <v>-0.004390243902439024</v>
       </c>
       <c r="X3">
-        <v>0.1142478215553331</v>
+        <v>0.08338554606666604</v>
       </c>
       <c r="Y3">
-        <v>0.6118391349664059</v>
+        <v>-0.08777578996910507</v>
       </c>
       <c r="Z3">
-        <v>4.980920473751691</v>
+        <v>7.834934991520632</v>
       </c>
       <c r="AA3">
-        <v>-0.02024694775022892</v>
+        <v>0.212832108535896</v>
       </c>
       <c r="AB3">
-        <v>0.0855063223799522</v>
+        <v>0.0631608069638028</v>
       </c>
       <c r="AC3">
-        <v>-0.1057532701301811</v>
+        <v>0.1496713015720932</v>
       </c>
       <c r="AD3">
-        <v>24.5</v>
+        <v>29.1</v>
       </c>
       <c r="AE3">
-        <v>4.221702700493118</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>28.72170270049312</v>
+        <v>29.1</v>
       </c>
       <c r="AG3">
-        <v>27.21170270049312</v>
+        <v>26.86</v>
       </c>
       <c r="AH3">
-        <v>0.3406205256849629</v>
+        <v>0.3204845814977973</v>
       </c>
       <c r="AI3">
-        <v>0.5835170488770064</v>
+        <v>0.5866935483870968</v>
       </c>
       <c r="AJ3">
-        <v>0.3285973094758149</v>
+        <v>0.303297199638663</v>
       </c>
       <c r="AK3">
-        <v>0.5703360215692297</v>
+        <v>0.5671452702702703</v>
       </c>
       <c r="AL3">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
       <c r="AM3">
-        <v>2.693</v>
+        <v>3.28</v>
       </c>
       <c r="AN3">
-        <v>53.3769063180828</v>
+        <v>3.655778894472362</v>
       </c>
       <c r="AO3">
-        <v>-0.3068535825545171</v>
+        <v>2.295731707317073</v>
       </c>
       <c r="AP3">
-        <v>59.28475533876497</v>
+        <v>3.374371859296482</v>
       </c>
       <c r="AQ3">
-        <v>-0.3657630894912737</v>
+        <v>2.295731707317073</v>
       </c>
     </row>
     <row r="4">
@@ -847,22 +843,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.09088000000000002</v>
+        <v>-0.1141044776119403</v>
       </c>
       <c r="H4">
-        <v>-0.1056</v>
+        <v>-0.1313432835820895</v>
       </c>
       <c r="I4">
-        <v>-0.2</v>
+        <v>-0.05805970149253731</v>
       </c>
       <c r="J4">
-        <v>-0.2</v>
+        <v>-0.05805970149253731</v>
       </c>
       <c r="K4">
-        <v>-2.73</v>
+        <v>-1.09</v>
       </c>
       <c r="L4">
-        <v>-0.2184</v>
+        <v>-0.08134328358208956</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -886,73 +882,8791 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.716</v>
+        <v>0.97</v>
       </c>
       <c r="V4">
-        <v>0.1033189033189033</v>
+        <v>0.1099773242630385</v>
       </c>
       <c r="W4">
-        <v>-0.4572864321608041</v>
+        <v>-0.1882556131260795</v>
       </c>
       <c r="X4">
-        <v>0.09177616058785226</v>
+        <v>0.07505356367457358</v>
       </c>
       <c r="Y4">
-        <v>-0.5490625927486563</v>
+        <v>-0.263309176800653</v>
       </c>
       <c r="Z4">
-        <v>2.001280819724624</v>
+        <v>4.647936177592785</v>
       </c>
       <c r="AA4">
-        <v>-0.4002561639449249</v>
+        <v>-0.269857787027402</v>
       </c>
       <c r="AB4">
-        <v>0.0864748812341755</v>
+        <v>0.06322221472086569</v>
       </c>
       <c r="AC4">
-        <v>-0.4867310451791004</v>
+        <v>-0.3330800017482677</v>
       </c>
       <c r="AD4">
-        <v>0.649</v>
+        <v>2.43</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.649</v>
+        <v>2.43</v>
       </c>
       <c r="AG4">
-        <v>-0.06699999999999995</v>
+        <v>1.46</v>
       </c>
       <c r="AH4">
-        <v>0.08563134978229318</v>
+        <v>0.216</v>
       </c>
       <c r="AI4">
-        <v>0.100792048454729</v>
+        <v>0.3266129032258065</v>
       </c>
       <c r="AJ4">
-        <v>-0.009762494535917231</v>
+        <v>0.1420233463035019</v>
       </c>
       <c r="AK4">
-        <v>-0.01170714660143281</v>
+        <v>0.2256568778979908</v>
       </c>
       <c r="AL4">
-        <v>0.197</v>
+        <v>0.177</v>
       </c>
       <c r="AM4">
-        <v>0.197</v>
+        <v>0.177</v>
       </c>
       <c r="AN4">
-        <v>-0.3380208333333334</v>
+        <v>-27</v>
       </c>
       <c r="AO4">
-        <v>-12.69035532994924</v>
+        <v>-4.395480225988701</v>
       </c>
       <c r="AP4">
-        <v>0.03489583333333331</v>
+        <v>-16.22222222222222</v>
       </c>
       <c r="AQ4">
-        <v>-12.69035532994924</v>
+        <v>-4.395480225988701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Strax AB (publ) (OM:STRAX)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OM:STRAX</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electronics (Consumer &amp; Office)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.320484581497797</v>
+      </c>
+      <c r="F2">
+        <v>0.37</v>
+      </c>
+      <c r="G2">
+        <v>61.7</v>
+      </c>
+      <c r="H2">
+        <v>61.9156796626768</v>
+      </c>
+      <c r="I2">
+        <v>88.56</v>
+      </c>
+      <c r="J2">
+        <v>93.2716796626768</v>
+      </c>
+      <c r="K2">
+        <v>29.1</v>
+      </c>
+      <c r="L2">
+        <v>33.596</v>
+      </c>
+      <c r="M2">
+        <v>0.0631608069638028</v>
+      </c>
+      <c r="N2">
+        <v>0.0603398337246854</v>
+      </c>
+      <c r="O2">
+        <v>0.0202788</v>
+      </c>
+      <c r="P2">
+        <v>0.0127332</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B2/B</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.083385546066666</v>
+      </c>
+      <c r="T2">
+        <v>0.0882992852772784</v>
+      </c>
+      <c r="U2">
+        <v>1.56960902683614</v>
+      </c>
+      <c r="V2">
+        <v>1.67371367112878</v>
+      </c>
+      <c r="W2">
+        <v>13.83542132440811</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>61.7</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0.214</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>7.96</v>
+      </c>
+      <c r="AH2">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="AI2">
+        <v>1.439</v>
+      </c>
+      <c r="AJ2">
+        <v>29.1</v>
+      </c>
+      <c r="AK2">
+        <v>29.1</v>
+      </c>
+      <c r="AL2">
+        <v>3.28</v>
+      </c>
+      <c r="AM2">
+        <v>29.1</v>
+      </c>
+      <c r="AN2">
+        <v>2.24</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06334916240381985</v>
+      </c>
+      <c r="C2">
+        <v>90.50229893041202</v>
+      </c>
+      <c r="D2">
+        <v>88.26229893041203</v>
+      </c>
+      <c r="E2">
+        <v>-29.1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.24</v>
+      </c>
+      <c r="H2">
+        <v>61.7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7.96</v>
+      </c>
+      <c r="K2">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L2">
+        <v>7.53</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>7.53</v>
+      </c>
+      <c r="O2">
+        <v>1.61142</v>
+      </c>
+      <c r="P2">
+        <v>5.91858</v>
+      </c>
+      <c r="Q2">
+        <v>6.34858</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06334916240381985</v>
+      </c>
+      <c r="T2">
+        <v>1.145109372962285</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.214</v>
+      </c>
+      <c r="W2">
+        <v>0.0127332</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06326782919627566</v>
+      </c>
+      <c r="C3">
+        <v>89.72260246277352</v>
+      </c>
+      <c r="D3">
+        <v>88.39060246277353</v>
+      </c>
+      <c r="E3">
+        <v>-28.192</v>
+      </c>
+      <c r="F3">
+        <v>0.9080000000000001</v>
+      </c>
+      <c r="G3">
+        <v>2.24</v>
+      </c>
+      <c r="H3">
+        <v>61.7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7.96</v>
+      </c>
+      <c r="K3">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L3">
+        <v>7.53</v>
+      </c>
+      <c r="M3">
+        <v>0.0147096</v>
+      </c>
+      <c r="N3">
+        <v>7.5152904</v>
+      </c>
+      <c r="O3">
+        <v>1.6082721456</v>
+      </c>
+      <c r="P3">
+        <v>5.907018254400001</v>
+      </c>
+      <c r="Q3">
+        <v>6.3370182544</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06377827999623804</v>
+      </c>
+      <c r="T3">
+        <v>1.154200847377925</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.214</v>
+      </c>
+      <c r="W3">
+        <v>0.0127332</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>511.9105890031</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06318649598873151</v>
+      </c>
+      <c r="C4">
+        <v>88.94327955805677</v>
+      </c>
+      <c r="D4">
+        <v>88.51927955805678</v>
+      </c>
+      <c r="E4">
+        <v>-27.284</v>
+      </c>
+      <c r="F4">
+        <v>1.816</v>
+      </c>
+      <c r="G4">
+        <v>2.24</v>
+      </c>
+      <c r="H4">
+        <v>61.7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7.96</v>
+      </c>
+      <c r="K4">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L4">
+        <v>7.53</v>
+      </c>
+      <c r="M4">
+        <v>0.0294192</v>
+      </c>
+      <c r="N4">
+        <v>7.5005808</v>
+      </c>
+      <c r="O4">
+        <v>1.6051242912</v>
+      </c>
+      <c r="P4">
+        <v>5.8954565088</v>
+      </c>
+      <c r="Q4">
+        <v>6.325456508799999</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06421615509054235</v>
+      </c>
+      <c r="T4">
+        <v>1.163477862087762</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.214</v>
+      </c>
+      <c r="W4">
+        <v>0.0127332</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>255.95529450155</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06310516278118732</v>
+      </c>
+      <c r="C5">
+        <v>88.16433185011448</v>
+      </c>
+      <c r="D5">
+        <v>88.64833185011449</v>
+      </c>
+      <c r="E5">
+        <v>-26.376</v>
+      </c>
+      <c r="F5">
+        <v>2.724</v>
+      </c>
+      <c r="G5">
+        <v>2.24</v>
+      </c>
+      <c r="H5">
+        <v>61.7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.96</v>
+      </c>
+      <c r="K5">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L5">
+        <v>7.53</v>
+      </c>
+      <c r="M5">
+        <v>0.0441288</v>
+      </c>
+      <c r="N5">
+        <v>7.4858712</v>
+      </c>
+      <c r="O5">
+        <v>1.6019764368</v>
+      </c>
+      <c r="P5">
+        <v>5.8838947632</v>
+      </c>
+      <c r="Q5">
+        <v>6.3138947632</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06466305853730651</v>
+      </c>
+      <c r="T5">
+        <v>1.172946155451409</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.214</v>
+      </c>
+      <c r="W5">
+        <v>0.0127332</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>170.6368630010333</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06302382957364315</v>
+      </c>
+      <c r="C6">
+        <v>87.38576098234105</v>
+      </c>
+      <c r="D6">
+        <v>88.77776098234106</v>
+      </c>
+      <c r="E6">
+        <v>-25.468</v>
+      </c>
+      <c r="F6">
+        <v>3.632000000000001</v>
+      </c>
+      <c r="G6">
+        <v>2.24</v>
+      </c>
+      <c r="H6">
+        <v>61.7</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.96</v>
+      </c>
+      <c r="K6">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L6">
+        <v>7.53</v>
+      </c>
+      <c r="M6">
+        <v>0.05883840000000001</v>
+      </c>
+      <c r="N6">
+        <v>7.4711616</v>
+      </c>
+      <c r="O6">
+        <v>1.5988285824</v>
+      </c>
+      <c r="P6">
+        <v>5.872333017600001</v>
+      </c>
+      <c r="Q6">
+        <v>6.302333017600001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06511927247254495</v>
+      </c>
+      <c r="T6">
+        <v>1.1826117049268</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.214</v>
+      </c>
+      <c r="W6">
+        <v>0.0127332</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>127.977647250775</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06294249636609897</v>
+      </c>
+      <c r="C7">
+        <v>86.60756860774264</v>
+      </c>
+      <c r="D7">
+        <v>88.90756860774265</v>
+      </c>
+      <c r="E7">
+        <v>-24.56</v>
+      </c>
+      <c r="F7">
+        <v>4.540000000000001</v>
+      </c>
+      <c r="G7">
+        <v>2.24</v>
+      </c>
+      <c r="H7">
+        <v>61.7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.96</v>
+      </c>
+      <c r="K7">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L7">
+        <v>7.53</v>
+      </c>
+      <c r="M7">
+        <v>0.07354800000000002</v>
+      </c>
+      <c r="N7">
+        <v>7.456452000000001</v>
+      </c>
+      <c r="O7">
+        <v>1.595680728</v>
+      </c>
+      <c r="P7">
+        <v>5.860771272000001</v>
+      </c>
+      <c r="Q7">
+        <v>6.290771272000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06558509091168313</v>
+      </c>
+      <c r="T7">
+        <v>1.192480739654304</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.214</v>
+      </c>
+      <c r="W7">
+        <v>0.0127332</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>102.38211780062</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06286116315855479</v>
+      </c>
+      <c r="C8">
+        <v>85.82975638900737</v>
+      </c>
+      <c r="D8">
+        <v>89.03775638900738</v>
+      </c>
+      <c r="E8">
+        <v>-23.652</v>
+      </c>
+      <c r="F8">
+        <v>5.448</v>
+      </c>
+      <c r="G8">
+        <v>2.24</v>
+      </c>
+      <c r="H8">
+        <v>61.7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.96</v>
+      </c>
+      <c r="K8">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L8">
+        <v>7.53</v>
+      </c>
+      <c r="M8">
+        <v>0.08825760000000001</v>
+      </c>
+      <c r="N8">
+        <v>7.4417424</v>
+      </c>
+      <c r="O8">
+        <v>1.5925328736</v>
+      </c>
+      <c r="P8">
+        <v>5.8492095264</v>
+      </c>
+      <c r="Q8">
+        <v>6.2792095264</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06606082038144127</v>
+      </c>
+      <c r="T8">
+        <v>1.202559753844095</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.214</v>
+      </c>
+      <c r="W8">
+        <v>0.0127332</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>85.31843150051667</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06277982995101063</v>
+      </c>
+      <c r="C9">
+        <v>85.05232599857641</v>
+      </c>
+      <c r="D9">
+        <v>89.16832599857641</v>
+      </c>
+      <c r="E9">
+        <v>-22.744</v>
+      </c>
+      <c r="F9">
+        <v>6.356000000000002</v>
+      </c>
+      <c r="G9">
+        <v>2.24</v>
+      </c>
+      <c r="H9">
+        <v>61.7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.96</v>
+      </c>
+      <c r="K9">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L9">
+        <v>7.53</v>
+      </c>
+      <c r="M9">
+        <v>0.1029672</v>
+      </c>
+      <c r="N9">
+        <v>7.4270328</v>
+      </c>
+      <c r="O9">
+        <v>1.5893850192</v>
+      </c>
+      <c r="P9">
+        <v>5.8376477808</v>
+      </c>
+      <c r="Q9">
+        <v>6.2676477808</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06654678059248455</v>
+      </c>
+      <c r="T9">
+        <v>1.212855521027215</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.214</v>
+      </c>
+      <c r="W9">
+        <v>0.0127332</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>73.13008414329998</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06269849674346646</v>
+      </c>
+      <c r="C10">
+        <v>84.2752791187155</v>
+      </c>
+      <c r="D10">
+        <v>89.2992791187155</v>
+      </c>
+      <c r="E10">
+        <v>-21.836</v>
+      </c>
+      <c r="F10">
+        <v>7.264000000000001</v>
+      </c>
+      <c r="G10">
+        <v>2.24</v>
+      </c>
+      <c r="H10">
+        <v>61.7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.96</v>
+      </c>
+      <c r="K10">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L10">
+        <v>7.53</v>
+      </c>
+      <c r="M10">
+        <v>0.1176768</v>
+      </c>
+      <c r="N10">
+        <v>7.4123232</v>
+      </c>
+      <c r="O10">
+        <v>1.5862371648</v>
+      </c>
+      <c r="P10">
+        <v>5.8260860352</v>
+      </c>
+      <c r="Q10">
+        <v>6.2560860352</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.0670433051559418</v>
+      </c>
+      <c r="T10">
+        <v>1.223375109236055</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.214</v>
+      </c>
+      <c r="W10">
+        <v>0.0127332</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>63.9888236253875</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06261716353592227</v>
+      </c>
+      <c r="C11">
+        <v>83.49861744158738</v>
+      </c>
+      <c r="D11">
+        <v>89.43061744158739</v>
+      </c>
+      <c r="E11">
+        <v>-20.928</v>
+      </c>
+      <c r="F11">
+        <v>8.172000000000001</v>
+      </c>
+      <c r="G11">
+        <v>2.24</v>
+      </c>
+      <c r="H11">
+        <v>61.7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.96</v>
+      </c>
+      <c r="K11">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L11">
+        <v>7.53</v>
+      </c>
+      <c r="M11">
+        <v>0.1323864</v>
+      </c>
+      <c r="N11">
+        <v>7.397613600000001</v>
+      </c>
+      <c r="O11">
+        <v>1.5830893104</v>
+      </c>
+      <c r="P11">
+        <v>5.8145242896</v>
+      </c>
+      <c r="Q11">
+        <v>6.2445242896</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06755074234716733</v>
+      </c>
+      <c r="T11">
+        <v>1.234125897185749</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.214</v>
+      </c>
+      <c r="W11">
+        <v>0.0127332</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>56.87895433367778</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06253583032837809</v>
+      </c>
+      <c r="C12">
+        <v>82.72234266932439</v>
+      </c>
+      <c r="D12">
+        <v>89.56234266932439</v>
+      </c>
+      <c r="E12">
+        <v>-20.02</v>
+      </c>
+      <c r="F12">
+        <v>9.080000000000002</v>
+      </c>
+      <c r="G12">
+        <v>2.24</v>
+      </c>
+      <c r="H12">
+        <v>61.7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.96</v>
+      </c>
+      <c r="K12">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L12">
+        <v>7.53</v>
+      </c>
+      <c r="M12">
+        <v>0.147096</v>
+      </c>
+      <c r="N12">
+        <v>7.382904</v>
+      </c>
+      <c r="O12">
+        <v>1.579941456</v>
+      </c>
+      <c r="P12">
+        <v>5.802962544</v>
+      </c>
+      <c r="Q12">
+        <v>6.232962543999999</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0680694559204201</v>
+      </c>
+      <c r="T12">
+        <v>1.245115591534324</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.214</v>
+      </c>
+      <c r="W12">
+        <v>0.0127332</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>51.19105890030999</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06245449712083393</v>
+      </c>
+      <c r="C13">
+        <v>81.94645651410224</v>
+      </c>
+      <c r="D13">
+        <v>89.69445651410224</v>
+      </c>
+      <c r="E13">
+        <v>-19.112</v>
+      </c>
+      <c r="F13">
+        <v>9.988000000000001</v>
+      </c>
+      <c r="G13">
+        <v>2.24</v>
+      </c>
+      <c r="H13">
+        <v>61.7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.96</v>
+      </c>
+      <c r="K13">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L13">
+        <v>7.53</v>
+      </c>
+      <c r="M13">
+        <v>0.1618056</v>
+      </c>
+      <c r="N13">
+        <v>7.3681944</v>
+      </c>
+      <c r="O13">
+        <v>1.5767936016</v>
+      </c>
+      <c r="P13">
+        <v>5.7914007984</v>
+      </c>
+      <c r="Q13">
+        <v>6.221400798399999</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06859982597846509</v>
+      </c>
+      <c r="T13">
+        <v>1.256352245306464</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.214</v>
+      </c>
+      <c r="W13">
+        <v>0.0127332</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>46.53732627300909</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06237316391328976</v>
+      </c>
+      <c r="C14">
+        <v>81.17096069821415</v>
+      </c>
+      <c r="D14">
+        <v>89.82696069821415</v>
+      </c>
+      <c r="E14">
+        <v>-18.204</v>
+      </c>
+      <c r="F14">
+        <v>10.896</v>
+      </c>
+      <c r="G14">
+        <v>2.24</v>
+      </c>
+      <c r="H14">
+        <v>61.7</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.96</v>
+      </c>
+      <c r="K14">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L14">
+        <v>7.53</v>
+      </c>
+      <c r="M14">
+        <v>0.1765152</v>
+      </c>
+      <c r="N14">
+        <v>7.3534848</v>
+      </c>
+      <c r="O14">
+        <v>1.5736457472</v>
+      </c>
+      <c r="P14">
+        <v>5.7798390528</v>
+      </c>
+      <c r="Q14">
+        <v>6.2098390528</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06914224990146563</v>
+      </c>
+      <c r="T14">
+        <v>1.267844277573424</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.214</v>
+      </c>
+      <c r="W14">
+        <v>0.0127332</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>42.65921575025833</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06229183070574557</v>
+      </c>
+      <c r="C15">
+        <v>80.39585695414566</v>
+      </c>
+      <c r="D15">
+        <v>89.95985695414566</v>
+      </c>
+      <c r="E15">
+        <v>-17.296</v>
+      </c>
+      <c r="F15">
+        <v>11.804</v>
+      </c>
+      <c r="G15">
+        <v>2.24</v>
+      </c>
+      <c r="H15">
+        <v>61.7</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.96</v>
+      </c>
+      <c r="K15">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L15">
+        <v>7.53</v>
+      </c>
+      <c r="M15">
+        <v>0.1912248</v>
+      </c>
+      <c r="N15">
+        <v>7.338775200000001</v>
+      </c>
+      <c r="O15">
+        <v>1.5704978928</v>
+      </c>
+      <c r="P15">
+        <v>5.7682773072</v>
+      </c>
+      <c r="Q15">
+        <v>6.1982773072</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06969714333993744</v>
+      </c>
+      <c r="T15">
+        <v>1.2796004944902</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.214</v>
+      </c>
+      <c r="W15">
+        <v>0.0127332</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>39.37773761562308</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06221049749820141</v>
+      </c>
+      <c r="C16">
+        <v>79.62114702465006</v>
+      </c>
+      <c r="D16">
+        <v>90.09314702465007</v>
+      </c>
+      <c r="E16">
+        <v>-16.388</v>
+      </c>
+      <c r="F16">
+        <v>12.712</v>
+      </c>
+      <c r="G16">
+        <v>2.24</v>
+      </c>
+      <c r="H16">
+        <v>61.7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.96</v>
+      </c>
+      <c r="K16">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L16">
+        <v>7.53</v>
+      </c>
+      <c r="M16">
+        <v>0.2059344</v>
+      </c>
+      <c r="N16">
+        <v>7.3240656</v>
+      </c>
+      <c r="O16">
+        <v>1.5673500384</v>
+      </c>
+      <c r="P16">
+        <v>5.7567155616</v>
+      </c>
+      <c r="Q16">
+        <v>6.1867155616</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07026494127697838</v>
+      </c>
+      <c r="T16">
+        <v>1.291630111800389</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.214</v>
+      </c>
+      <c r="W16">
+        <v>0.0127332</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>36.56504207164999</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06212916429065723</v>
+      </c>
+      <c r="C17">
+        <v>78.84683266282475</v>
+      </c>
+      <c r="D17">
+        <v>90.22683266282476</v>
+      </c>
+      <c r="E17">
+        <v>-15.48</v>
+      </c>
+      <c r="F17">
+        <v>13.62</v>
+      </c>
+      <c r="G17">
+        <v>2.24</v>
+      </c>
+      <c r="H17">
+        <v>61.7</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.96</v>
+      </c>
+      <c r="K17">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L17">
+        <v>7.53</v>
+      </c>
+      <c r="M17">
+        <v>0.220644</v>
+      </c>
+      <c r="N17">
+        <v>7.309356</v>
+      </c>
+      <c r="O17">
+        <v>1.564202184</v>
+      </c>
+      <c r="P17">
+        <v>5.745153816</v>
+      </c>
+      <c r="Q17">
+        <v>6.175153816</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0708460991654791</v>
+      </c>
+      <c r="T17">
+        <v>1.303942778929642</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.214</v>
+      </c>
+      <c r="W17">
+        <v>0.0127332</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>34.12737260020667</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06204783108311306</v>
+      </c>
+      <c r="C18">
+        <v>78.0729156321879</v>
+      </c>
+      <c r="D18">
+        <v>90.36091563218791</v>
+      </c>
+      <c r="E18">
+        <v>-14.572</v>
+      </c>
+      <c r="F18">
+        <v>14.528</v>
+      </c>
+      <c r="G18">
+        <v>2.24</v>
+      </c>
+      <c r="H18">
+        <v>61.7</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.96</v>
+      </c>
+      <c r="K18">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L18">
+        <v>7.53</v>
+      </c>
+      <c r="M18">
+        <v>0.2353536</v>
+      </c>
+      <c r="N18">
+        <v>7.2946464</v>
+      </c>
+      <c r="O18">
+        <v>1.5610543296</v>
+      </c>
+      <c r="P18">
+        <v>5.7335920704</v>
+      </c>
+      <c r="Q18">
+        <v>6.1635920704</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07144109414656316</v>
+      </c>
+      <c r="T18">
+        <v>1.316548604800067</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.214</v>
+      </c>
+      <c r="W18">
+        <v>0.0127332</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>31.99441181269375</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06196649787556888</v>
+      </c>
+      <c r="C19">
+        <v>77.2993977067562</v>
+      </c>
+      <c r="D19">
+        <v>90.49539770675621</v>
+      </c>
+      <c r="E19">
+        <v>-13.664</v>
+      </c>
+      <c r="F19">
+        <v>15.436</v>
+      </c>
+      <c r="G19">
+        <v>2.24</v>
+      </c>
+      <c r="H19">
+        <v>61.7</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.96</v>
+      </c>
+      <c r="K19">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L19">
+        <v>7.53</v>
+      </c>
+      <c r="M19">
+        <v>0.2500632</v>
+      </c>
+      <c r="N19">
+        <v>7.2799368</v>
+      </c>
+      <c r="O19">
+        <v>1.5579064752</v>
+      </c>
+      <c r="P19">
+        <v>5.7220303248</v>
+      </c>
+      <c r="Q19">
+        <v>6.152030324799999</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07205042635610709</v>
+      </c>
+      <c r="T19">
+        <v>1.329458185510743</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.214</v>
+      </c>
+      <c r="W19">
+        <v>0.0127332</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>30.11238758841764</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.06188516466802471</v>
+      </c>
+      <c r="C20">
+        <v>76.52628067112289</v>
+      </c>
+      <c r="D20">
+        <v>90.6302806711229</v>
+      </c>
+      <c r="E20">
+        <v>-12.756</v>
+      </c>
+      <c r="F20">
+        <v>16.344</v>
+      </c>
+      <c r="G20">
+        <v>2.24</v>
+      </c>
+      <c r="H20">
+        <v>61.7</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.96</v>
+      </c>
+      <c r="K20">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L20">
+        <v>7.53</v>
+      </c>
+      <c r="M20">
+        <v>0.2647728</v>
+      </c>
+      <c r="N20">
+        <v>7.2652272</v>
+      </c>
+      <c r="O20">
+        <v>1.5547586208</v>
+      </c>
+      <c r="P20">
+        <v>5.710468579200001</v>
+      </c>
+      <c r="Q20">
+        <v>6.1404685792</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0726746203268594</v>
+      </c>
+      <c r="T20">
+        <v>1.342682634043631</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.214</v>
+      </c>
+      <c r="W20">
+        <v>0.0127332</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>28.43947716683889</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06180383146048053</v>
+      </c>
+      <c r="C21">
+        <v>75.75356632053689</v>
+      </c>
+      <c r="D21">
+        <v>90.76556632053691</v>
+      </c>
+      <c r="E21">
+        <v>-11.848</v>
+      </c>
+      <c r="F21">
+        <v>17.252</v>
+      </c>
+      <c r="G21">
+        <v>2.24</v>
+      </c>
+      <c r="H21">
+        <v>61.7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.96</v>
+      </c>
+      <c r="K21">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L21">
+        <v>7.53</v>
+      </c>
+      <c r="M21">
+        <v>0.2794824</v>
+      </c>
+      <c r="N21">
+        <v>7.2505176</v>
+      </c>
+      <c r="O21">
+        <v>1.5516107664</v>
+      </c>
+      <c r="P21">
+        <v>5.698906833600001</v>
+      </c>
+      <c r="Q21">
+        <v>6.1289068336</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.0733142264944204</v>
+      </c>
+      <c r="T21">
+        <v>1.356233612169924</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.214</v>
+      </c>
+      <c r="W21">
+        <v>0.0127332</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>26.94266257911053</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.06172249825293636</v>
+      </c>
+      <c r="C22">
+        <v>74.98125646098228</v>
+      </c>
+      <c r="D22">
+        <v>90.9012564609823</v>
+      </c>
+      <c r="E22">
+        <v>-10.94</v>
+      </c>
+      <c r="F22">
+        <v>18.16</v>
+      </c>
+      <c r="G22">
+        <v>2.24</v>
+      </c>
+      <c r="H22">
+        <v>61.7</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.96</v>
+      </c>
+      <c r="K22">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L22">
+        <v>7.53</v>
+      </c>
+      <c r="M22">
+        <v>0.2941920000000001</v>
+      </c>
+      <c r="N22">
+        <v>7.235808</v>
+      </c>
+      <c r="O22">
+        <v>1.548462912</v>
+      </c>
+      <c r="P22">
+        <v>5.687345088000001</v>
+      </c>
+      <c r="Q22">
+        <v>6.117345088</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07396982281617044</v>
+      </c>
+      <c r="T22">
+        <v>1.370123364749374</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.214</v>
+      </c>
+      <c r="W22">
+        <v>0.0127332</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>25.595529450155</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06164116504539218</v>
+      </c>
+      <c r="C23">
+        <v>74.20935290925888</v>
+      </c>
+      <c r="D23">
+        <v>91.03735290925889</v>
+      </c>
+      <c r="E23">
+        <v>-10.032</v>
+      </c>
+      <c r="F23">
+        <v>19.068</v>
+      </c>
+      <c r="G23">
+        <v>2.24</v>
+      </c>
+      <c r="H23">
+        <v>61.7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.96</v>
+      </c>
+      <c r="K23">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L23">
+        <v>7.53</v>
+      </c>
+      <c r="M23">
+        <v>0.3089016</v>
+      </c>
+      <c r="N23">
+        <v>7.221098400000001</v>
+      </c>
+      <c r="O23">
+        <v>1.5453150576</v>
+      </c>
+      <c r="P23">
+        <v>5.675783342400001</v>
+      </c>
+      <c r="Q23">
+        <v>6.105783342400001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07464201651315466</v>
+      </c>
+      <c r="T23">
+        <v>1.384364756634633</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.214</v>
+      </c>
+      <c r="W23">
+        <v>0.0127332</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>24.37669471443334</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06155983183784801</v>
+      </c>
+      <c r="C24">
+        <v>73.43785749306299</v>
+      </c>
+      <c r="D24">
+        <v>91.173857493063</v>
+      </c>
+      <c r="E24">
+        <v>-9.123999999999999</v>
+      </c>
+      <c r="F24">
+        <v>19.976</v>
+      </c>
+      <c r="G24">
+        <v>2.24</v>
+      </c>
+      <c r="H24">
+        <v>61.7</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.96</v>
+      </c>
+      <c r="K24">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L24">
+        <v>7.53</v>
+      </c>
+      <c r="M24">
+        <v>0.3236112</v>
+      </c>
+      <c r="N24">
+        <v>7.2063888</v>
+      </c>
+      <c r="O24">
+        <v>1.5421672032</v>
+      </c>
+      <c r="P24">
+        <v>5.6642215968</v>
+      </c>
+      <c r="Q24">
+        <v>6.0942215968</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07533144594595899</v>
+      </c>
+      <c r="T24">
+        <v>1.398971312414385</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.214</v>
+      </c>
+      <c r="W24">
+        <v>0.0127332</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>23.26866313650454</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06147849863030384</v>
+      </c>
+      <c r="C25">
+        <v>72.66677205106964</v>
+      </c>
+      <c r="D25">
+        <v>91.31077205106965</v>
+      </c>
+      <c r="E25">
+        <v>-8.215999999999998</v>
+      </c>
+      <c r="F25">
+        <v>20.884</v>
+      </c>
+      <c r="G25">
+        <v>2.24</v>
+      </c>
+      <c r="H25">
+        <v>61.7</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7.96</v>
+      </c>
+      <c r="K25">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L25">
+        <v>7.53</v>
+      </c>
+      <c r="M25">
+        <v>0.3383208</v>
+      </c>
+      <c r="N25">
+        <v>7.1916792</v>
+      </c>
+      <c r="O25">
+        <v>1.5390193488</v>
+      </c>
+      <c r="P25">
+        <v>5.6526598512</v>
+      </c>
+      <c r="Q25">
+        <v>6.0826598512</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07603878263675823</v>
+      </c>
+      <c r="T25">
+        <v>1.413957259253352</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.214</v>
+      </c>
+      <c r="W25">
+        <v>0.0127332</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>22.25698213056956</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.06139716542275966</v>
+      </c>
+      <c r="C26">
+        <v>71.89609843301477</v>
+      </c>
+      <c r="D26">
+        <v>91.44809843301478</v>
+      </c>
+      <c r="E26">
+        <v>-7.308</v>
+      </c>
+      <c r="F26">
+        <v>21.792</v>
+      </c>
+      <c r="G26">
+        <v>2.24</v>
+      </c>
+      <c r="H26">
+        <v>61.7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>7.96</v>
+      </c>
+      <c r="K26">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L26">
+        <v>7.53</v>
+      </c>
+      <c r="M26">
+        <v>0.3530304</v>
+      </c>
+      <c r="N26">
+        <v>7.176969600000001</v>
+      </c>
+      <c r="O26">
+        <v>1.5358714944</v>
+      </c>
+      <c r="P26">
+        <v>5.6410981056</v>
+      </c>
+      <c r="Q26">
+        <v>6.0710981056</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07676473345099956</v>
+      </c>
+      <c r="T26">
+        <v>1.429337573114397</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.214</v>
+      </c>
+      <c r="W26">
+        <v>0.0127332</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>21.32960787512917</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06131583221521549</v>
+      </c>
+      <c r="C27">
+        <v>71.12583849977878</v>
+      </c>
+      <c r="D27">
+        <v>91.58583849977879</v>
+      </c>
+      <c r="E27">
+        <v>-6.399999999999999</v>
+      </c>
+      <c r="F27">
+        <v>22.7</v>
+      </c>
+      <c r="G27">
+        <v>2.24</v>
+      </c>
+      <c r="H27">
+        <v>61.7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>7.96</v>
+      </c>
+      <c r="K27">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L27">
+        <v>7.53</v>
+      </c>
+      <c r="M27">
+        <v>0.36774</v>
+      </c>
+      <c r="N27">
+        <v>7.16226</v>
+      </c>
+      <c r="O27">
+        <v>1.53272364</v>
+      </c>
+      <c r="P27">
+        <v>5.629536359999999</v>
+      </c>
+      <c r="Q27">
+        <v>6.059536359999999</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07751004295362066</v>
+      </c>
+      <c r="T27">
+        <v>1.445128028678404</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.214</v>
+      </c>
+      <c r="W27">
+        <v>0.0127332</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>20.476423560124</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06123449900767131</v>
+      </c>
+      <c r="C28">
+        <v>70.35599412347041</v>
+      </c>
+      <c r="D28">
+        <v>91.72399412347042</v>
+      </c>
+      <c r="E28">
+        <v>-5.491999999999997</v>
+      </c>
+      <c r="F28">
+        <v>23.608</v>
+      </c>
+      <c r="G28">
+        <v>2.24</v>
+      </c>
+      <c r="H28">
+        <v>61.7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7.96</v>
+      </c>
+      <c r="K28">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L28">
+        <v>7.53</v>
+      </c>
+      <c r="M28">
+        <v>0.3824496000000001</v>
+      </c>
+      <c r="N28">
+        <v>7.1475504</v>
+      </c>
+      <c r="O28">
+        <v>1.5295757856</v>
+      </c>
+      <c r="P28">
+        <v>5.6179746144</v>
+      </c>
+      <c r="Q28">
+        <v>6.047974614399999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07827549595631259</v>
+      </c>
+      <c r="T28">
+        <v>1.461345253311707</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.214</v>
+      </c>
+      <c r="W28">
+        <v>0.0127332</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>19.68886880781154</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06115316580012715</v>
+      </c>
+      <c r="C29">
+        <v>69.58656718751168</v>
+      </c>
+      <c r="D29">
+        <v>91.86256718751169</v>
+      </c>
+      <c r="E29">
+        <v>-4.583999999999996</v>
+      </c>
+      <c r="F29">
+        <v>24.51600000000001</v>
+      </c>
+      <c r="G29">
+        <v>2.24</v>
+      </c>
+      <c r="H29">
+        <v>61.7</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7.96</v>
+      </c>
+      <c r="K29">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L29">
+        <v>7.53</v>
+      </c>
+      <c r="M29">
+        <v>0.3971592</v>
+      </c>
+      <c r="N29">
+        <v>7.1328408</v>
+      </c>
+      <c r="O29">
+        <v>1.5264279312</v>
+      </c>
+      <c r="P29">
+        <v>5.606412868800001</v>
+      </c>
+      <c r="Q29">
+        <v>6.0364128688</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07906192027414678</v>
+      </c>
+      <c r="T29">
+        <v>1.478006785469211</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.214</v>
+      </c>
+      <c r="W29">
+        <v>0.0127332</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>18.95965144455926</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.06107183259258296</v>
+      </c>
+      <c r="C30">
+        <v>68.8175595867235</v>
+      </c>
+      <c r="D30">
+        <v>92.00155958672352</v>
+      </c>
+      <c r="E30">
+        <v>-3.675999999999995</v>
+      </c>
+      <c r="F30">
+        <v>25.42400000000001</v>
+      </c>
+      <c r="G30">
+        <v>2.24</v>
+      </c>
+      <c r="H30">
+        <v>61.7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7.96</v>
+      </c>
+      <c r="K30">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L30">
+        <v>7.53</v>
+      </c>
+      <c r="M30">
+        <v>0.4118688000000001</v>
+      </c>
+      <c r="N30">
+        <v>7.118131200000001</v>
+      </c>
+      <c r="O30">
+        <v>1.5232800768</v>
+      </c>
+      <c r="P30">
+        <v>5.594851123200001</v>
+      </c>
+      <c r="Q30">
+        <v>6.0248511232</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07987018971192078</v>
+      </c>
+      <c r="T30">
+        <v>1.495131137964423</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.214</v>
+      </c>
+      <c r="W30">
+        <v>0.0127332</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>18.282521035825</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.06099049938503878</v>
+      </c>
+      <c r="C31">
+        <v>68.04897322741186</v>
+      </c>
+      <c r="D31">
+        <v>92.14097322741186</v>
+      </c>
+      <c r="E31">
+        <v>-2.768000000000001</v>
+      </c>
+      <c r="F31">
+        <v>26.332</v>
+      </c>
+      <c r="G31">
+        <v>2.24</v>
+      </c>
+      <c r="H31">
+        <v>61.7</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7.96</v>
+      </c>
+      <c r="K31">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L31">
+        <v>7.53</v>
+      </c>
+      <c r="M31">
+        <v>0.4265784</v>
+      </c>
+      <c r="N31">
+        <v>7.1034216</v>
+      </c>
+      <c r="O31">
+        <v>1.5201322224</v>
+      </c>
+      <c r="P31">
+        <v>5.5832893776</v>
+      </c>
+      <c r="Q31">
+        <v>6.0132893776</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08070122730287153</v>
+      </c>
+      <c r="T31">
+        <v>1.512737866586261</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.214</v>
+      </c>
+      <c r="W31">
+        <v>0.0127332</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>17.65208927596897</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06090916617749461</v>
+      </c>
+      <c r="C32">
+        <v>67.28081002745509</v>
+      </c>
+      <c r="D32">
+        <v>92.2808100274551</v>
+      </c>
+      <c r="E32">
+        <v>-1.859999999999999</v>
+      </c>
+      <c r="F32">
+        <v>27.24</v>
+      </c>
+      <c r="G32">
+        <v>2.24</v>
+      </c>
+      <c r="H32">
+        <v>61.7</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>7.96</v>
+      </c>
+      <c r="K32">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L32">
+        <v>7.53</v>
+      </c>
+      <c r="M32">
+        <v>0.441288</v>
+      </c>
+      <c r="N32">
+        <v>7.088712</v>
+      </c>
+      <c r="O32">
+        <v>1.516984368</v>
+      </c>
+      <c r="P32">
+        <v>5.571727632</v>
+      </c>
+      <c r="Q32">
+        <v>6.001727632</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08155600882499231</v>
+      </c>
+      <c r="T32">
+        <v>1.530847644597295</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.214</v>
+      </c>
+      <c r="W32">
+        <v>0.0127332</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>17.06368630010333</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06082783296995044</v>
+      </c>
+      <c r="C33">
+        <v>66.51307191639194</v>
+      </c>
+      <c r="D33">
+        <v>92.42107191639194</v>
+      </c>
+      <c r="E33">
+        <v>-0.9519999999999982</v>
+      </c>
+      <c r="F33">
+        <v>28.148</v>
+      </c>
+      <c r="G33">
+        <v>2.24</v>
+      </c>
+      <c r="H33">
+        <v>61.7</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7.96</v>
+      </c>
+      <c r="K33">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L33">
+        <v>7.53</v>
+      </c>
+      <c r="M33">
+        <v>0.4559976</v>
+      </c>
+      <c r="N33">
+        <v>7.0740024</v>
+      </c>
+      <c r="O33">
+        <v>1.5138365136</v>
+      </c>
+      <c r="P33">
+        <v>5.5601658864</v>
+      </c>
+      <c r="Q33">
+        <v>5.9901658864</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08243556662311659</v>
+      </c>
+      <c r="T33">
+        <v>1.549482343710097</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.214</v>
+      </c>
+      <c r="W33">
+        <v>0.0127332</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>16.51324480655161</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06074649976240627</v>
+      </c>
+      <c r="C34">
+        <v>65.74576083551005</v>
+      </c>
+      <c r="D34">
+        <v>92.56176083551007</v>
+      </c>
+      <c r="E34">
+        <v>-0.04399999999999693</v>
+      </c>
+      <c r="F34">
+        <v>29.056</v>
+      </c>
+      <c r="G34">
+        <v>2.24</v>
+      </c>
+      <c r="H34">
+        <v>61.7</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>7.96</v>
+      </c>
+      <c r="K34">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L34">
+        <v>7.53</v>
+      </c>
+      <c r="M34">
+        <v>0.4707072</v>
+      </c>
+      <c r="N34">
+        <v>7.059292800000001</v>
+      </c>
+      <c r="O34">
+        <v>1.5106886592</v>
+      </c>
+      <c r="P34">
+        <v>5.5486041408</v>
+      </c>
+      <c r="Q34">
+        <v>5.9786041408</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08334099376824453</v>
+      </c>
+      <c r="T34">
+        <v>1.56866512220857</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.214</v>
+      </c>
+      <c r="W34">
+        <v>0.0127332</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>15.99720590634688</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06066516655486209</v>
+      </c>
+      <c r="C35">
+        <v>64.97887873793582</v>
+      </c>
+      <c r="D35">
+        <v>92.70287873793582</v>
+      </c>
+      <c r="E35">
+        <v>0.8640000000000043</v>
+      </c>
+      <c r="F35">
+        <v>29.96400000000001</v>
+      </c>
+      <c r="G35">
+        <v>2.24</v>
+      </c>
+      <c r="H35">
+        <v>61.7</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7.96</v>
+      </c>
+      <c r="K35">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L35">
+        <v>7.53</v>
+      </c>
+      <c r="M35">
+        <v>0.4854168000000001</v>
+      </c>
+      <c r="N35">
+        <v>7.0445832</v>
+      </c>
+      <c r="O35">
+        <v>1.5075408048</v>
+      </c>
+      <c r="P35">
+        <v>5.5370423952</v>
+      </c>
+      <c r="Q35">
+        <v>5.9670423952</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08427344858934642</v>
+      </c>
+      <c r="T35">
+        <v>1.588420520960729</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.214</v>
+      </c>
+      <c r="W35">
+        <v>0.0127332</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>15.51244209100303</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.06058383334731791</v>
+      </c>
+      <c r="C36">
+        <v>64.21242758872447</v>
+      </c>
+      <c r="D36">
+        <v>92.84442758872449</v>
+      </c>
+      <c r="E36">
+        <v>1.772000000000006</v>
+      </c>
+      <c r="F36">
+        <v>30.87200000000001</v>
+      </c>
+      <c r="G36">
+        <v>2.24</v>
+      </c>
+      <c r="H36">
+        <v>61.7</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7.96</v>
+      </c>
+      <c r="K36">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L36">
+        <v>7.53</v>
+      </c>
+      <c r="M36">
+        <v>0.5001264000000001</v>
+      </c>
+      <c r="N36">
+        <v>7.0298736</v>
+      </c>
+      <c r="O36">
+        <v>1.5043929504</v>
+      </c>
+      <c r="P36">
+        <v>5.5254806496</v>
+      </c>
+      <c r="Q36">
+        <v>5.9554806496</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08523415961714836</v>
+      </c>
+      <c r="T36">
+        <v>1.608774568159923</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.214</v>
+      </c>
+      <c r="W36">
+        <v>0.0127332</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>15.05619379420882</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06050250013977375</v>
+      </c>
+      <c r="C37">
+        <v>63.44640936495147</v>
+      </c>
+      <c r="D37">
+        <v>92.98640936495148</v>
+      </c>
+      <c r="E37">
+        <v>2.680000000000007</v>
+      </c>
+      <c r="F37">
+        <v>31.78000000000001</v>
+      </c>
+      <c r="G37">
+        <v>2.24</v>
+      </c>
+      <c r="H37">
+        <v>61.7</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>7.96</v>
+      </c>
+      <c r="K37">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L37">
+        <v>7.53</v>
+      </c>
+      <c r="M37">
+        <v>0.5148360000000001</v>
+      </c>
+      <c r="N37">
+        <v>7.015164</v>
+      </c>
+      <c r="O37">
+        <v>1.501245096</v>
+      </c>
+      <c r="P37">
+        <v>5.513918904000001</v>
+      </c>
+      <c r="Q37">
+        <v>5.943918904</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08622443098426731</v>
+      </c>
+      <c r="T37">
+        <v>1.629754893734477</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.214</v>
+      </c>
+      <c r="W37">
+        <v>0.0127332</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>14.62601682866</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06042116693222958</v>
+      </c>
+      <c r="C38">
+        <v>62.68082605580463</v>
+      </c>
+      <c r="D38">
+        <v>93.12882605580464</v>
+      </c>
+      <c r="E38">
+        <v>3.588000000000001</v>
+      </c>
+      <c r="F38">
+        <v>32.688</v>
+      </c>
+      <c r="G38">
+        <v>2.24</v>
+      </c>
+      <c r="H38">
+        <v>61.7</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>7.96</v>
+      </c>
+      <c r="K38">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L38">
+        <v>7.53</v>
+      </c>
+      <c r="M38">
+        <v>0.5295456000000001</v>
+      </c>
+      <c r="N38">
+        <v>7.000454400000001</v>
+      </c>
+      <c r="O38">
+        <v>1.4980972416</v>
+      </c>
+      <c r="P38">
+        <v>5.502357158400001</v>
+      </c>
+      <c r="Q38">
+        <v>5.9323571584</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08724564833160871</v>
+      </c>
+      <c r="T38">
+        <v>1.651390854483235</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.214</v>
+      </c>
+      <c r="W38">
+        <v>0.0127332</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>14.21973858341944</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06033983372468539</v>
+      </c>
+      <c r="C39">
+        <v>61.91567966267679</v>
+      </c>
+      <c r="D39">
+        <v>93.2716796626768</v>
+      </c>
+      <c r="E39">
+        <v>4.496000000000002</v>
+      </c>
+      <c r="F39">
+        <v>33.596</v>
+      </c>
+      <c r="G39">
+        <v>2.24</v>
+      </c>
+      <c r="H39">
+        <v>61.7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>7.96</v>
+      </c>
+      <c r="K39">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L39">
+        <v>7.53</v>
+      </c>
+      <c r="M39">
+        <v>0.5442552000000001</v>
+      </c>
+      <c r="N39">
+        <v>6.9857448</v>
+      </c>
+      <c r="O39">
+        <v>1.4949493872</v>
+      </c>
+      <c r="P39">
+        <v>5.4907954128</v>
+      </c>
+      <c r="Q39">
+        <v>5.9207954128</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.0882992852772784</v>
+      </c>
+      <c r="T39">
+        <v>1.67371367112878</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.214</v>
+      </c>
+      <c r="W39">
+        <v>0.0127332</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>13.83542132440811</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.06073638851714123</v>
+      </c>
+      <c r="C40">
+        <v>60.31528105089062</v>
+      </c>
+      <c r="D40">
+        <v>92.57928105089063</v>
+      </c>
+      <c r="E40">
+        <v>5.404000000000003</v>
+      </c>
+      <c r="F40">
+        <v>34.504</v>
+      </c>
+      <c r="G40">
+        <v>2.24</v>
+      </c>
+      <c r="H40">
+        <v>61.7</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>7.96</v>
+      </c>
+      <c r="K40">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L40">
+        <v>7.53</v>
+      </c>
+      <c r="M40">
+        <v>0.6141712</v>
+      </c>
+      <c r="N40">
+        <v>6.9158288</v>
+      </c>
+      <c r="O40">
+        <v>1.4799873632</v>
+      </c>
+      <c r="P40">
+        <v>5.4358414368</v>
+      </c>
+      <c r="Q40">
+        <v>5.865841436799999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08938691051151811</v>
+      </c>
+      <c r="T40">
+        <v>1.696756578633858</v>
+      </c>
+      <c r="U40">
+        <v>0.0178</v>
+      </c>
+      <c r="V40">
+        <v>0.214</v>
+      </c>
+      <c r="W40">
+        <v>0.0139908</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>12.26042510622445</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.06066763130959704</v>
+      </c>
+      <c r="C41">
+        <v>59.52659592140358</v>
+      </c>
+      <c r="D41">
+        <v>92.69859592140359</v>
+      </c>
+      <c r="E41">
+        <v>6.312000000000005</v>
+      </c>
+      <c r="F41">
+        <v>35.41200000000001</v>
+      </c>
+      <c r="G41">
+        <v>2.24</v>
+      </c>
+      <c r="H41">
+        <v>61.7</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7.96</v>
+      </c>
+      <c r="K41">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L41">
+        <v>7.53</v>
+      </c>
+      <c r="M41">
+        <v>0.6303336</v>
+      </c>
+      <c r="N41">
+        <v>6.8996664</v>
+      </c>
+      <c r="O41">
+        <v>1.4765286096</v>
+      </c>
+      <c r="P41">
+        <v>5.4231377904</v>
+      </c>
+      <c r="Q41">
+        <v>5.8531377904</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.09051019558950335</v>
+      </c>
+      <c r="T41">
+        <v>1.720554991303037</v>
+      </c>
+      <c r="U41">
+        <v>0.0178</v>
+      </c>
+      <c r="V41">
+        <v>0.214</v>
+      </c>
+      <c r="W41">
+        <v>0.0139908</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>11.94605523170588</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06059887410205287</v>
+      </c>
+      <c r="C42">
+        <v>58.73821873142622</v>
+      </c>
+      <c r="D42">
+        <v>92.81821873142623</v>
+      </c>
+      <c r="E42">
+        <v>7.220000000000006</v>
+      </c>
+      <c r="F42">
+        <v>36.32000000000001</v>
+      </c>
+      <c r="G42">
+        <v>2.24</v>
+      </c>
+      <c r="H42">
+        <v>61.7</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>7.96</v>
+      </c>
+      <c r="K42">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L42">
+        <v>7.53</v>
+      </c>
+      <c r="M42">
+        <v>0.6464960000000001</v>
+      </c>
+      <c r="N42">
+        <v>6.883504</v>
+      </c>
+      <c r="O42">
+        <v>1.473069856</v>
+      </c>
+      <c r="P42">
+        <v>5.410434144</v>
+      </c>
+      <c r="Q42">
+        <v>5.840434144</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.09167092350342144</v>
+      </c>
+      <c r="T42">
+        <v>1.745146684394522</v>
+      </c>
+      <c r="U42">
+        <v>0.0178</v>
+      </c>
+      <c r="V42">
+        <v>0.214</v>
+      </c>
+      <c r="W42">
+        <v>0.0139908</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>11.64740385091323</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06053011689450871</v>
+      </c>
+      <c r="C43">
+        <v>57.95015067463957</v>
+      </c>
+      <c r="D43">
+        <v>92.93815067463959</v>
+      </c>
+      <c r="E43">
+        <v>8.128000000000007</v>
+      </c>
+      <c r="F43">
+        <v>37.22800000000001</v>
+      </c>
+      <c r="G43">
+        <v>2.24</v>
+      </c>
+      <c r="H43">
+        <v>61.7</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>7.96</v>
+      </c>
+      <c r="K43">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L43">
+        <v>7.53</v>
+      </c>
+      <c r="M43">
+        <v>0.6626584000000002</v>
+      </c>
+      <c r="N43">
+        <v>6.8673416</v>
+      </c>
+      <c r="O43">
+        <v>1.4696111024</v>
+      </c>
+      <c r="P43">
+        <v>5.3977304976</v>
+      </c>
+      <c r="Q43">
+        <v>5.827730497599999</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.09287099812628594</v>
+      </c>
+      <c r="T43">
+        <v>1.770571994200973</v>
+      </c>
+      <c r="U43">
+        <v>0.0178</v>
+      </c>
+      <c r="V43">
+        <v>0.214</v>
+      </c>
+      <c r="W43">
+        <v>0.0139908</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>11.36332083015925</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06046135968696453</v>
+      </c>
+      <c r="C44">
+        <v>57.16239295090229</v>
+      </c>
+      <c r="D44">
+        <v>93.0583929509023</v>
+      </c>
+      <c r="E44">
+        <v>9.036000000000001</v>
+      </c>
+      <c r="F44">
+        <v>38.136</v>
+      </c>
+      <c r="G44">
+        <v>2.24</v>
+      </c>
+      <c r="H44">
+        <v>61.7</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7.96</v>
+      </c>
+      <c r="K44">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L44">
+        <v>7.53</v>
+      </c>
+      <c r="M44">
+        <v>0.6788208</v>
+      </c>
+      <c r="N44">
+        <v>6.851179200000001</v>
+      </c>
+      <c r="O44">
+        <v>1.4661523488</v>
+      </c>
+      <c r="P44">
+        <v>5.385026851200001</v>
+      </c>
+      <c r="Q44">
+        <v>5.815026851200001</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09411245463269745</v>
+      </c>
+      <c r="T44">
+        <v>1.796874038828336</v>
+      </c>
+      <c r="U44">
+        <v>0.0178</v>
+      </c>
+      <c r="V44">
+        <v>0.214</v>
+      </c>
+      <c r="W44">
+        <v>0.0139908</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>11.09276557229832</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.06039260247942035</v>
+      </c>
+      <c r="C45">
+        <v>56.37494676629041</v>
+      </c>
+      <c r="D45">
+        <v>93.17894676629042</v>
+      </c>
+      <c r="E45">
+        <v>9.944000000000003</v>
+      </c>
+      <c r="F45">
+        <v>39.044</v>
+      </c>
+      <c r="G45">
+        <v>2.24</v>
+      </c>
+      <c r="H45">
+        <v>61.7</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>7.96</v>
+      </c>
+      <c r="K45">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L45">
+        <v>7.53</v>
+      </c>
+      <c r="M45">
+        <v>0.6949832</v>
+      </c>
+      <c r="N45">
+        <v>6.8350168</v>
+      </c>
+      <c r="O45">
+        <v>1.4626935952</v>
+      </c>
+      <c r="P45">
+        <v>5.3723232048</v>
+      </c>
+      <c r="Q45">
+        <v>5.8023232048</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09539747101652692</v>
+      </c>
+      <c r="T45">
+        <v>1.824098962214553</v>
+      </c>
+      <c r="U45">
+        <v>0.0178</v>
+      </c>
+      <c r="V45">
+        <v>0.214</v>
+      </c>
+      <c r="W45">
+        <v>0.0139908</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>10.83479427991928</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.06108469327187618</v>
+      </c>
+      <c r="C46">
+        <v>54.26755365406117</v>
+      </c>
+      <c r="D46">
+        <v>91.97955365406118</v>
+      </c>
+      <c r="E46">
+        <v>10.852</v>
+      </c>
+      <c r="F46">
+        <v>39.95200000000001</v>
+      </c>
+      <c r="G46">
+        <v>2.24</v>
+      </c>
+      <c r="H46">
+        <v>61.7</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>7.96</v>
+      </c>
+      <c r="K46">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L46">
+        <v>7.53</v>
+      </c>
+      <c r="M46">
+        <v>0.79904</v>
+      </c>
+      <c r="N46">
+        <v>6.73096</v>
+      </c>
+      <c r="O46">
+        <v>1.44042544</v>
+      </c>
+      <c r="P46">
+        <v>5.29053456</v>
+      </c>
+      <c r="Q46">
+        <v>5.72053456</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09672838084263602</v>
+      </c>
+      <c r="T46">
+        <v>1.852296204293136</v>
+      </c>
+      <c r="U46">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0.214</v>
+      </c>
+      <c r="W46">
+        <v>0.01572</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>9.423808570284342</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.061033228064332</v>
+      </c>
+      <c r="C47">
+        <v>53.44767915647304</v>
+      </c>
+      <c r="D47">
+        <v>92.06767915647305</v>
+      </c>
+      <c r="E47">
+        <v>11.76000000000001</v>
+      </c>
+      <c r="F47">
+        <v>40.86000000000001</v>
+      </c>
+      <c r="G47">
+        <v>2.24</v>
+      </c>
+      <c r="H47">
+        <v>61.7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>7.96</v>
+      </c>
+      <c r="K47">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L47">
+        <v>7.53</v>
+      </c>
+      <c r="M47">
+        <v>0.8172</v>
+      </c>
+      <c r="N47">
+        <v>6.712800000000001</v>
+      </c>
+      <c r="O47">
+        <v>1.4365392</v>
+      </c>
+      <c r="P47">
+        <v>5.2762608</v>
+      </c>
+      <c r="Q47">
+        <v>5.7062608</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09810768738969454</v>
+      </c>
+      <c r="T47">
+        <v>1.881518800629122</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.214</v>
+      </c>
+      <c r="W47">
+        <v>0.01572</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>9.214390602055801</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.06098176285678783</v>
+      </c>
+      <c r="C48">
+        <v>52.62797368671111</v>
+      </c>
+      <c r="D48">
+        <v>92.15597368671112</v>
+      </c>
+      <c r="E48">
+        <v>12.66800000000001</v>
+      </c>
+      <c r="F48">
+        <v>41.76800000000001</v>
+      </c>
+      <c r="G48">
+        <v>2.24</v>
+      </c>
+      <c r="H48">
+        <v>61.7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>7.96</v>
+      </c>
+      <c r="K48">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L48">
+        <v>7.53</v>
+      </c>
+      <c r="M48">
+        <v>0.83536</v>
+      </c>
+      <c r="N48">
+        <v>6.694640000000001</v>
+      </c>
+      <c r="O48">
+        <v>1.43265296</v>
+      </c>
+      <c r="P48">
+        <v>5.26198704</v>
+      </c>
+      <c r="Q48">
+        <v>5.69198704</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.0995380793644219</v>
+      </c>
+      <c r="T48">
+        <v>1.911823715347922</v>
+      </c>
+      <c r="U48">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0.214</v>
+      </c>
+      <c r="W48">
+        <v>0.01572</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>9.014077762880675</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.06093029764924365</v>
+      </c>
+      <c r="C49">
+        <v>51.80843773154429</v>
+      </c>
+      <c r="D49">
+        <v>92.24443773154431</v>
+      </c>
+      <c r="E49">
+        <v>13.57600000000001</v>
+      </c>
+      <c r="F49">
+        <v>42.67600000000001</v>
+      </c>
+      <c r="G49">
+        <v>2.24</v>
+      </c>
+      <c r="H49">
+        <v>61.7</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>7.96</v>
+      </c>
+      <c r="K49">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L49">
+        <v>7.53</v>
+      </c>
+      <c r="M49">
+        <v>0.8535200000000001</v>
+      </c>
+      <c r="N49">
+        <v>6.67648</v>
+      </c>
+      <c r="O49">
+        <v>1.42876672</v>
+      </c>
+      <c r="P49">
+        <v>5.24771328</v>
+      </c>
+      <c r="Q49">
+        <v>5.67771328</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1010224483947993</v>
+      </c>
+      <c r="T49">
+        <v>1.943272211754223</v>
+      </c>
+      <c r="U49">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0.214</v>
+      </c>
+      <c r="W49">
+        <v>0.01572</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>8.822288874308743</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06087883244169948</v>
+      </c>
+      <c r="C50">
+        <v>50.98907177961225</v>
+      </c>
+      <c r="D50">
+        <v>92.33307177961225</v>
+      </c>
+      <c r="E50">
+        <v>14.484</v>
+      </c>
+      <c r="F50">
+        <v>43.584</v>
+      </c>
+      <c r="G50">
+        <v>2.24</v>
+      </c>
+      <c r="H50">
+        <v>61.7</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>7.96</v>
+      </c>
+      <c r="K50">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L50">
+        <v>7.53</v>
+      </c>
+      <c r="M50">
+        <v>0.8716799999999999</v>
+      </c>
+      <c r="N50">
+        <v>6.658320000000001</v>
+      </c>
+      <c r="O50">
+        <v>1.42488048</v>
+      </c>
+      <c r="P50">
+        <v>5.233439520000001</v>
+      </c>
+      <c r="Q50">
+        <v>5.663439520000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1025639085417298</v>
+      </c>
+      <c r="T50">
+        <v>1.975930265714614</v>
+      </c>
+      <c r="U50">
+        <v>0.02</v>
+      </c>
+      <c r="V50">
+        <v>0.214</v>
+      </c>
+      <c r="W50">
+        <v>0.01572</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>8.638491189427315</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.0608273672341553</v>
+      </c>
+      <c r="C51">
+        <v>50.16987632143453</v>
+      </c>
+      <c r="D51">
+        <v>92.42187632143454</v>
+      </c>
+      <c r="E51">
+        <v>15.392</v>
+      </c>
+      <c r="F51">
+        <v>44.492</v>
+      </c>
+      <c r="G51">
+        <v>2.24</v>
+      </c>
+      <c r="H51">
+        <v>61.7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>7.96</v>
+      </c>
+      <c r="K51">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L51">
+        <v>7.53</v>
+      </c>
+      <c r="M51">
+        <v>0.88984</v>
+      </c>
+      <c r="N51">
+        <v>6.64016</v>
+      </c>
+      <c r="O51">
+        <v>1.42099424</v>
+      </c>
+      <c r="P51">
+        <v>5.21916576</v>
+      </c>
+      <c r="Q51">
+        <v>5.64916576</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1041658181061869</v>
+      </c>
+      <c r="T51">
+        <v>2.00986902767345</v>
+      </c>
+      <c r="U51">
+        <v>0.02</v>
+      </c>
+      <c r="V51">
+        <v>0.214</v>
+      </c>
+      <c r="W51">
+        <v>0.01572</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>8.462195450867572</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.06077590202661112</v>
+      </c>
+      <c r="C52">
+        <v>49.35085184941964</v>
+      </c>
+      <c r="D52">
+        <v>92.51085184941965</v>
+      </c>
+      <c r="E52">
+        <v>16.3</v>
+      </c>
+      <c r="F52">
+        <v>45.40000000000001</v>
+      </c>
+      <c r="G52">
+        <v>2.24</v>
+      </c>
+      <c r="H52">
+        <v>61.7</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>7.96</v>
+      </c>
+      <c r="K52">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L52">
+        <v>7.53</v>
+      </c>
+      <c r="M52">
+        <v>0.908</v>
+      </c>
+      <c r="N52">
+        <v>6.622</v>
+      </c>
+      <c r="O52">
+        <v>1.417108</v>
+      </c>
+      <c r="P52">
+        <v>5.204892</v>
+      </c>
+      <c r="Q52">
+        <v>5.634892</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1058318040532222</v>
+      </c>
+      <c r="T52">
+        <v>2.045165340110641</v>
+      </c>
+      <c r="U52">
+        <v>0.02</v>
+      </c>
+      <c r="V52">
+        <v>0.214</v>
+      </c>
+      <c r="W52">
+        <v>0.01572</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>8.29295154185022</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.06072443681906695</v>
+      </c>
+      <c r="C53">
+        <v>48.53199885787404</v>
+      </c>
+      <c r="D53">
+        <v>92.59999885787406</v>
+      </c>
+      <c r="E53">
+        <v>17.20800000000001</v>
+      </c>
+      <c r="F53">
+        <v>46.30800000000001</v>
+      </c>
+      <c r="G53">
+        <v>2.24</v>
+      </c>
+      <c r="H53">
+        <v>61.7</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>7.96</v>
+      </c>
+      <c r="K53">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L53">
+        <v>7.53</v>
+      </c>
+      <c r="M53">
+        <v>0.92616</v>
+      </c>
+      <c r="N53">
+        <v>6.60384</v>
+      </c>
+      <c r="O53">
+        <v>1.41322176</v>
+      </c>
+      <c r="P53">
+        <v>5.19061824</v>
+      </c>
+      <c r="Q53">
+        <v>5.62061824</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1075657894266673</v>
+      </c>
+      <c r="T53">
+        <v>2.081902318361594</v>
+      </c>
+      <c r="U53">
+        <v>0.02</v>
+      </c>
+      <c r="V53">
+        <v>0.214</v>
+      </c>
+      <c r="W53">
+        <v>0.01572</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>8.130344648872764</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.06067297161152278</v>
+      </c>
+      <c r="C54">
+        <v>47.71331784301141</v>
+      </c>
+      <c r="D54">
+        <v>92.68931784301142</v>
+      </c>
+      <c r="E54">
+        <v>18.11600000000001</v>
+      </c>
+      <c r="F54">
+        <v>47.21600000000001</v>
+      </c>
+      <c r="G54">
+        <v>2.24</v>
+      </c>
+      <c r="H54">
+        <v>61.7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7.96</v>
+      </c>
+      <c r="K54">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L54">
+        <v>7.53</v>
+      </c>
+      <c r="M54">
+        <v>0.94432</v>
+      </c>
+      <c r="N54">
+        <v>6.58568</v>
+      </c>
+      <c r="O54">
+        <v>1.40933552</v>
+      </c>
+      <c r="P54">
+        <v>5.17634448</v>
+      </c>
+      <c r="Q54">
+        <v>5.60634448</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1093720241906725</v>
+      </c>
+      <c r="T54">
+        <v>2.120170004039671</v>
+      </c>
+      <c r="U54">
+        <v>0.02</v>
+      </c>
+      <c r="V54">
+        <v>0.214</v>
+      </c>
+      <c r="W54">
+        <v>0.01572</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>7.973991867163673</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.06107974440397861</v>
+      </c>
+      <c r="C55">
+        <v>46.10402042510768</v>
+      </c>
+      <c r="D55">
+        <v>91.98802042510769</v>
+      </c>
+      <c r="E55">
+        <v>19.02400000000001</v>
+      </c>
+      <c r="F55">
+        <v>48.12400000000001</v>
+      </c>
+      <c r="G55">
+        <v>2.24</v>
+      </c>
+      <c r="H55">
+        <v>61.7</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>7.96</v>
+      </c>
+      <c r="K55">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L55">
+        <v>7.53</v>
+      </c>
+      <c r="M55">
+        <v>1.0154164</v>
+      </c>
+      <c r="N55">
+        <v>6.5145836</v>
+      </c>
+      <c r="O55">
+        <v>1.3941208904</v>
+      </c>
+      <c r="P55">
+        <v>5.1204627096</v>
+      </c>
+      <c r="Q55">
+        <v>5.5504627096</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1112551200084651</v>
+      </c>
+      <c r="T55">
+        <v>2.160066101874261</v>
+      </c>
+      <c r="U55">
+        <v>0.0211</v>
+      </c>
+      <c r="V55">
+        <v>0.214</v>
+      </c>
+      <c r="W55">
+        <v>0.0165846</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>7.415676957748563</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.06103692519643443</v>
+      </c>
+      <c r="C56">
+        <v>45.26934281091864</v>
+      </c>
+      <c r="D56">
+        <v>92.06134281091866</v>
+      </c>
+      <c r="E56">
+        <v>19.93200000000001</v>
+      </c>
+      <c r="F56">
+        <v>49.03200000000001</v>
+      </c>
+      <c r="G56">
+        <v>2.24</v>
+      </c>
+      <c r="H56">
+        <v>61.7</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>7.96</v>
+      </c>
+      <c r="K56">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L56">
+        <v>7.53</v>
+      </c>
+      <c r="M56">
+        <v>1.0345752</v>
+      </c>
+      <c r="N56">
+        <v>6.4954248</v>
+      </c>
+      <c r="O56">
+        <v>1.3900209072</v>
+      </c>
+      <c r="P56">
+        <v>5.1054038928</v>
+      </c>
+      <c r="Q56">
+        <v>5.5354038928</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1132200895574662</v>
+      </c>
+      <c r="T56">
+        <v>2.201696812658181</v>
+      </c>
+      <c r="U56">
+        <v>0.0211</v>
+      </c>
+      <c r="V56">
+        <v>0.214</v>
+      </c>
+      <c r="W56">
+        <v>0.0165846</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>7.278349606679146</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.06099410598889026</v>
+      </c>
+      <c r="C57">
+        <v>44.43478217850456</v>
+      </c>
+      <c r="D57">
+        <v>92.13478217850458</v>
+      </c>
+      <c r="E57">
+        <v>20.84000000000001</v>
+      </c>
+      <c r="F57">
+        <v>49.94000000000001</v>
+      </c>
+      <c r="G57">
+        <v>2.24</v>
+      </c>
+      <c r="H57">
+        <v>61.7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>7.96</v>
+      </c>
+      <c r="K57">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L57">
+        <v>7.53</v>
+      </c>
+      <c r="M57">
+        <v>1.053734</v>
+      </c>
+      <c r="N57">
+        <v>6.476266</v>
+      </c>
+      <c r="O57">
+        <v>1.385920924</v>
+      </c>
+      <c r="P57">
+        <v>5.090345076</v>
+      </c>
+      <c r="Q57">
+        <v>5.520345076</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1152723910864228</v>
+      </c>
+      <c r="T57">
+        <v>2.245177777254721</v>
+      </c>
+      <c r="U57">
+        <v>0.0211</v>
+      </c>
+      <c r="V57">
+        <v>0.214</v>
+      </c>
+      <c r="W57">
+        <v>0.0165846</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>7.146015977466797</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.06095128678134609</v>
+      </c>
+      <c r="C58">
+        <v>43.60033880804583</v>
+      </c>
+      <c r="D58">
+        <v>92.20833880804585</v>
+      </c>
+      <c r="E58">
+        <v>21.74800000000001</v>
+      </c>
+      <c r="F58">
+        <v>50.84800000000001</v>
+      </c>
+      <c r="G58">
+        <v>2.24</v>
+      </c>
+      <c r="H58">
+        <v>61.7</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>7.96</v>
+      </c>
+      <c r="K58">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L58">
+        <v>7.53</v>
+      </c>
+      <c r="M58">
+        <v>1.0728928</v>
+      </c>
+      <c r="N58">
+        <v>6.457107199999999</v>
+      </c>
+      <c r="O58">
+        <v>1.3818209408</v>
+      </c>
+      <c r="P58">
+        <v>5.075286259199999</v>
+      </c>
+      <c r="Q58">
+        <v>5.505286259199999</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1174179790485138</v>
+      </c>
+      <c r="T58">
+        <v>2.29063514933292</v>
+      </c>
+      <c r="U58">
+        <v>0.0211</v>
+      </c>
+      <c r="V58">
+        <v>0.214</v>
+      </c>
+      <c r="W58">
+        <v>0.0165846</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>7.018408549297746</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.06090846757380191</v>
+      </c>
+      <c r="C59">
+        <v>42.76601298061819</v>
+      </c>
+      <c r="D59">
+        <v>92.28201298061821</v>
+      </c>
+      <c r="E59">
+        <v>22.65600000000001</v>
+      </c>
+      <c r="F59">
+        <v>51.75600000000001</v>
+      </c>
+      <c r="G59">
+        <v>2.24</v>
+      </c>
+      <c r="H59">
+        <v>61.7</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>7.96</v>
+      </c>
+      <c r="K59">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L59">
+        <v>7.53</v>
+      </c>
+      <c r="M59">
+        <v>1.0920516</v>
+      </c>
+      <c r="N59">
+        <v>6.4379484</v>
+      </c>
+      <c r="O59">
+        <v>1.3777209576</v>
+      </c>
+      <c r="P59">
+        <v>5.0602274424</v>
+      </c>
+      <c r="Q59">
+        <v>5.490227442399999</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1196633617995393</v>
+      </c>
+      <c r="T59">
+        <v>2.33820681778685</v>
+      </c>
+      <c r="U59">
+        <v>0.0211</v>
+      </c>
+      <c r="V59">
+        <v>0.214</v>
+      </c>
+      <c r="W59">
+        <v>0.0165846</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>6.895278574748664</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.06086564836625774</v>
+      </c>
+      <c r="C60">
+        <v>41.93180497819651</v>
+      </c>
+      <c r="D60">
+        <v>92.35580497819652</v>
+      </c>
+      <c r="E60">
+        <v>23.564</v>
+      </c>
+      <c r="F60">
+        <v>52.664</v>
+      </c>
+      <c r="G60">
+        <v>2.24</v>
+      </c>
+      <c r="H60">
+        <v>61.7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>7.96</v>
+      </c>
+      <c r="K60">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L60">
+        <v>7.53</v>
+      </c>
+      <c r="M60">
+        <v>1.1112104</v>
+      </c>
+      <c r="N60">
+        <v>6.4187896</v>
+      </c>
+      <c r="O60">
+        <v>1.3736209744</v>
+      </c>
+      <c r="P60">
+        <v>5.045168625600001</v>
+      </c>
+      <c r="Q60">
+        <v>5.4751686256</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1220156675387089</v>
+      </c>
+      <c r="T60">
+        <v>2.388043803786205</v>
+      </c>
+      <c r="U60">
+        <v>0.0211</v>
+      </c>
+      <c r="V60">
+        <v>0.214</v>
+      </c>
+      <c r="W60">
+        <v>0.0165846</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>6.77639446139093</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.06082282915871356</v>
+      </c>
+      <c r="C61">
+        <v>41.09771508365824</v>
+      </c>
+      <c r="D61">
+        <v>92.42971508365825</v>
+      </c>
+      <c r="E61">
+        <v>24.472</v>
+      </c>
+      <c r="F61">
+        <v>53.572</v>
+      </c>
+      <c r="G61">
+        <v>2.24</v>
+      </c>
+      <c r="H61">
+        <v>61.7</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>7.96</v>
+      </c>
+      <c r="K61">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L61">
+        <v>7.53</v>
+      </c>
+      <c r="M61">
+        <v>1.1303692</v>
+      </c>
+      <c r="N61">
+        <v>6.399630800000001</v>
+      </c>
+      <c r="O61">
+        <v>1.3695209912</v>
+      </c>
+      <c r="P61">
+        <v>5.030109808800001</v>
+      </c>
+      <c r="Q61">
+        <v>5.4601098088</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1244827198993014</v>
+      </c>
+      <c r="T61">
+        <v>2.440311862273334</v>
+      </c>
+      <c r="U61">
+        <v>0.0211</v>
+      </c>
+      <c r="V61">
+        <v>0.214</v>
+      </c>
+      <c r="W61">
+        <v>0.0165846</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>6.661540317977525</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.06078000995116938</v>
+      </c>
+      <c r="C62">
+        <v>40.26374358078709</v>
+      </c>
+      <c r="D62">
+        <v>92.5037435807871</v>
+      </c>
+      <c r="E62">
+        <v>25.38</v>
+      </c>
+      <c r="F62">
+        <v>54.48</v>
+      </c>
+      <c r="G62">
+        <v>2.24</v>
+      </c>
+      <c r="H62">
+        <v>61.7</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>7.96</v>
+      </c>
+      <c r="K62">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L62">
+        <v>7.53</v>
+      </c>
+      <c r="M62">
+        <v>1.149528</v>
+      </c>
+      <c r="N62">
+        <v>6.380472</v>
+      </c>
+      <c r="O62">
+        <v>1.365421008</v>
+      </c>
+      <c r="P62">
+        <v>5.015050992</v>
+      </c>
+      <c r="Q62">
+        <v>5.445050992</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1270731248779234</v>
+      </c>
+      <c r="T62">
+        <v>2.495193323684819</v>
+      </c>
+      <c r="U62">
+        <v>0.0211</v>
+      </c>
+      <c r="V62">
+        <v>0.214</v>
+      </c>
+      <c r="W62">
+        <v>0.0165846</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>6.550514646011232</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.06073719074362521</v>
+      </c>
+      <c r="C63">
+        <v>39.42989075427661</v>
+      </c>
+      <c r="D63">
+        <v>92.57789075427662</v>
+      </c>
+      <c r="E63">
+        <v>26.288</v>
+      </c>
+      <c r="F63">
+        <v>55.38800000000001</v>
+      </c>
+      <c r="G63">
+        <v>2.24</v>
+      </c>
+      <c r="H63">
+        <v>61.7</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>7.96</v>
+      </c>
+      <c r="K63">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L63">
+        <v>7.53</v>
+      </c>
+      <c r="M63">
+        <v>1.1686868</v>
+      </c>
+      <c r="N63">
+        <v>6.3613132</v>
+      </c>
+      <c r="O63">
+        <v>1.3613210248</v>
+      </c>
+      <c r="P63">
+        <v>4.9999921752</v>
+      </c>
+      <c r="Q63">
+        <v>5.4299921752</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1297963711375005</v>
+      </c>
+      <c r="T63">
+        <v>2.552889219014842</v>
+      </c>
+      <c r="U63">
+        <v>0.0211</v>
+      </c>
+      <c r="V63">
+        <v>0.214</v>
+      </c>
+      <c r="W63">
+        <v>0.0165846</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>6.443129160011047</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.06142535153608103</v>
+      </c>
+      <c r="C64">
+        <v>37.3444610776087</v>
+      </c>
+      <c r="D64">
+        <v>91.40046107760871</v>
+      </c>
+      <c r="E64">
+        <v>27.19600000000001</v>
+      </c>
+      <c r="F64">
+        <v>56.29600000000001</v>
+      </c>
+      <c r="G64">
+        <v>2.24</v>
+      </c>
+      <c r="H64">
+        <v>61.7</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>7.96</v>
+      </c>
+      <c r="K64">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L64">
+        <v>7.53</v>
+      </c>
+      <c r="M64">
+        <v>1.2722896</v>
+      </c>
+      <c r="N64">
+        <v>6.257710400000001</v>
+      </c>
+      <c r="O64">
+        <v>1.3391500256</v>
+      </c>
+      <c r="P64">
+        <v>4.9185603744</v>
+      </c>
+      <c r="Q64">
+        <v>5.3485603744</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1326629461475816</v>
+      </c>
+      <c r="T64">
+        <v>2.613621740414866</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.214</v>
+      </c>
+      <c r="W64">
+        <v>0.0177636</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>5.918463846595932</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.06139432232853686</v>
+      </c>
+      <c r="C65">
+        <v>36.48890630424913</v>
+      </c>
+      <c r="D65">
+        <v>91.45290630424914</v>
+      </c>
+      <c r="E65">
+        <v>28.10400000000001</v>
+      </c>
+      <c r="F65">
+        <v>57.20400000000001</v>
+      </c>
+      <c r="G65">
+        <v>2.24</v>
+      </c>
+      <c r="H65">
+        <v>61.7</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>7.96</v>
+      </c>
+      <c r="K65">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L65">
+        <v>7.53</v>
+      </c>
+      <c r="M65">
+        <v>1.2928104</v>
+      </c>
+      <c r="N65">
+        <v>6.237189600000001</v>
+      </c>
+      <c r="O65">
+        <v>1.3347585744</v>
+      </c>
+      <c r="P65">
+        <v>4.9024310256</v>
+      </c>
+      <c r="Q65">
+        <v>5.3324310256</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1356844711582077</v>
+      </c>
+      <c r="T65">
+        <v>2.677637100809486</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.214</v>
+      </c>
+      <c r="W65">
+        <v>0.0177636</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.824519976015045</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.06136329312099269</v>
+      </c>
+      <c r="C66">
+        <v>35.63341175117506</v>
+      </c>
+      <c r="D66">
+        <v>91.50541175117507</v>
+      </c>
+      <c r="E66">
+        <v>29.01200000000001</v>
+      </c>
+      <c r="F66">
+        <v>58.11200000000001</v>
+      </c>
+      <c r="G66">
+        <v>2.24</v>
+      </c>
+      <c r="H66">
+        <v>61.7</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>7.96</v>
+      </c>
+      <c r="K66">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L66">
+        <v>7.53</v>
+      </c>
+      <c r="M66">
+        <v>1.3133312</v>
+      </c>
+      <c r="N66">
+        <v>6.2166688</v>
+      </c>
+      <c r="O66">
+        <v>1.3303671232</v>
+      </c>
+      <c r="P66">
+        <v>4.8863016768</v>
+      </c>
+      <c r="Q66">
+        <v>5.316301676799999</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1388738586694241</v>
+      </c>
+      <c r="T66">
+        <v>2.745208870114918</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.214</v>
+      </c>
+      <c r="W66">
+        <v>0.0177636</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>5.733511851389808</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.06133226391344852</v>
+      </c>
+      <c r="C67">
+        <v>34.77797752216809</v>
+      </c>
+      <c r="D67">
+        <v>91.5579775221681</v>
+      </c>
+      <c r="E67">
+        <v>29.92000000000001</v>
+      </c>
+      <c r="F67">
+        <v>59.02000000000001</v>
+      </c>
+      <c r="G67">
+        <v>2.24</v>
+      </c>
+      <c r="H67">
+        <v>61.7</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>7.96</v>
+      </c>
+      <c r="K67">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L67">
+        <v>7.53</v>
+      </c>
+      <c r="M67">
+        <v>1.333852</v>
+      </c>
+      <c r="N67">
+        <v>6.196148</v>
+      </c>
+      <c r="O67">
+        <v>1.325975672</v>
+      </c>
+      <c r="P67">
+        <v>4.870172328</v>
+      </c>
+      <c r="Q67">
+        <v>5.300172327999999</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1422454968955672</v>
+      </c>
+      <c r="T67">
+        <v>2.816641883380661</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.214</v>
+      </c>
+      <c r="W67">
+        <v>0.0177636</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>5.645303976753043</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.06130123470590433</v>
+      </c>
+      <c r="C68">
+        <v>33.92260372124844</v>
+      </c>
+      <c r="D68">
+        <v>91.61060372124845</v>
+      </c>
+      <c r="E68">
+        <v>30.82800000000001</v>
+      </c>
+      <c r="F68">
+        <v>59.92800000000001</v>
+      </c>
+      <c r="G68">
+        <v>2.24</v>
+      </c>
+      <c r="H68">
+        <v>61.7</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>7.96</v>
+      </c>
+      <c r="K68">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L68">
+        <v>7.53</v>
+      </c>
+      <c r="M68">
+        <v>1.3543728</v>
+      </c>
+      <c r="N68">
+        <v>6.1756272</v>
+      </c>
+      <c r="O68">
+        <v>1.3215842208</v>
+      </c>
+      <c r="P68">
+        <v>4.8540429792</v>
+      </c>
+      <c r="Q68">
+        <v>5.2840429792</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1458154667820716</v>
+      </c>
+      <c r="T68">
+        <v>2.892276838603212</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.214</v>
+      </c>
+      <c r="W68">
+        <v>0.0177636</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>5.559769068014361</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.06127020549836017</v>
+      </c>
+      <c r="C69">
+        <v>33.06729045267552</v>
+      </c>
+      <c r="D69">
+        <v>91.66329045267554</v>
+      </c>
+      <c r="E69">
+        <v>31.73600000000001</v>
+      </c>
+      <c r="F69">
+        <v>60.83600000000001</v>
+      </c>
+      <c r="G69">
+        <v>2.24</v>
+      </c>
+      <c r="H69">
+        <v>61.7</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>7.96</v>
+      </c>
+      <c r="K69">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L69">
+        <v>7.53</v>
+      </c>
+      <c r="M69">
+        <v>1.3748936</v>
+      </c>
+      <c r="N69">
+        <v>6.1551064</v>
+      </c>
+      <c r="O69">
+        <v>1.3171927696</v>
+      </c>
+      <c r="P69">
+        <v>4.8379136304</v>
+      </c>
+      <c r="Q69">
+        <v>5.2679136304</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1496017984798793</v>
+      </c>
+      <c r="T69">
+        <v>2.972495730505917</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.214</v>
+      </c>
+      <c r="W69">
+        <v>0.0177636</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>5.476787440133548</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.06123917629081598</v>
+      </c>
+      <c r="C70">
+        <v>32.21203782094894</v>
+      </c>
+      <c r="D70">
+        <v>91.71603782094896</v>
+      </c>
+      <c r="E70">
+        <v>32.64400000000001</v>
+      </c>
+      <c r="F70">
+        <v>61.74400000000001</v>
+      </c>
+      <c r="G70">
+        <v>2.24</v>
+      </c>
+      <c r="H70">
+        <v>61.7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>7.96</v>
+      </c>
+      <c r="K70">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L70">
+        <v>7.53</v>
+      </c>
+      <c r="M70">
+        <v>1.3954144</v>
+      </c>
+      <c r="N70">
+        <v>6.1345856</v>
+      </c>
+      <c r="O70">
+        <v>1.3128013184</v>
+      </c>
+      <c r="P70">
+        <v>4.8217842816</v>
+      </c>
+      <c r="Q70">
+        <v>5.2517842816</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1536247759088</v>
+      </c>
+      <c r="T70">
+        <v>3.057728303152542</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.214</v>
+      </c>
+      <c r="W70">
+        <v>0.0177636</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>5.396246448366879</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.06120814708327181</v>
+      </c>
+      <c r="C71">
+        <v>31.35684593080875</v>
+      </c>
+      <c r="D71">
+        <v>91.76884593080877</v>
+      </c>
+      <c r="E71">
+        <v>33.55200000000001</v>
+      </c>
+      <c r="F71">
+        <v>62.65200000000002</v>
+      </c>
+      <c r="G71">
+        <v>2.24</v>
+      </c>
+      <c r="H71">
+        <v>61.7</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>7.96</v>
+      </c>
+      <c r="K71">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L71">
+        <v>7.53</v>
+      </c>
+      <c r="M71">
+        <v>1.4159352</v>
+      </c>
+      <c r="N71">
+        <v>6.1140648</v>
+      </c>
+      <c r="O71">
+        <v>1.3084098672</v>
+      </c>
+      <c r="P71">
+        <v>4.8056549328</v>
+      </c>
+      <c r="Q71">
+        <v>5.235654932799999</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1579073002686188</v>
+      </c>
+      <c r="T71">
+        <v>3.148459751453788</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.214</v>
+      </c>
+      <c r="W71">
+        <v>0.0177636</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>5.318039978100692</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.06117711787572765</v>
+      </c>
+      <c r="C72">
+        <v>30.50171488723646</v>
+      </c>
+      <c r="D72">
+        <v>91.82171488723648</v>
+      </c>
+      <c r="E72">
+        <v>34.46000000000002</v>
+      </c>
+      <c r="F72">
+        <v>63.56000000000002</v>
+      </c>
+      <c r="G72">
+        <v>2.24</v>
+      </c>
+      <c r="H72">
+        <v>61.7</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>7.96</v>
+      </c>
+      <c r="K72">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L72">
+        <v>7.53</v>
+      </c>
+      <c r="M72">
+        <v>1.436456</v>
+      </c>
+      <c r="N72">
+        <v>6.093544</v>
+      </c>
+      <c r="O72">
+        <v>1.304018416</v>
+      </c>
+      <c r="P72">
+        <v>4.789525584</v>
+      </c>
+      <c r="Q72">
+        <v>5.219525583999999</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1624753262524255</v>
+      </c>
+      <c r="T72">
+        <v>3.245239962975116</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.214</v>
+      </c>
+      <c r="W72">
+        <v>0.0177636</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>5.242067978413539</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.06114608866818347</v>
+      </c>
+      <c r="C73">
+        <v>29.64664479545573</v>
+      </c>
+      <c r="D73">
+        <v>91.87464479545574</v>
+      </c>
+      <c r="E73">
+        <v>35.368</v>
+      </c>
+      <c r="F73">
+        <v>64.468</v>
+      </c>
+      <c r="G73">
+        <v>2.24</v>
+      </c>
+      <c r="H73">
+        <v>61.7</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>7.96</v>
+      </c>
+      <c r="K73">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L73">
+        <v>7.53</v>
+      </c>
+      <c r="M73">
+        <v>1.4569768</v>
+      </c>
+      <c r="N73">
+        <v>6.0730232</v>
+      </c>
+      <c r="O73">
+        <v>1.2996269648</v>
+      </c>
+      <c r="P73">
+        <v>4.7733962352</v>
+      </c>
+      <c r="Q73">
+        <v>5.2033962352</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1673583885109775</v>
+      </c>
+      <c r="T73">
+        <v>3.348694671842742</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.214</v>
+      </c>
+      <c r="W73">
+        <v>0.0177636</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>5.168236035055602</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.06111505946063929</v>
+      </c>
+      <c r="C74">
+        <v>28.79163576093286</v>
+      </c>
+      <c r="D74">
+        <v>91.92763576093287</v>
+      </c>
+      <c r="E74">
+        <v>36.276</v>
+      </c>
+      <c r="F74">
+        <v>65.376</v>
+      </c>
+      <c r="G74">
+        <v>2.24</v>
+      </c>
+      <c r="H74">
+        <v>61.7</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>7.96</v>
+      </c>
+      <c r="K74">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L74">
+        <v>7.53</v>
+      </c>
+      <c r="M74">
+        <v>1.4774976</v>
+      </c>
+      <c r="N74">
+        <v>6.0525024</v>
+      </c>
+      <c r="O74">
+        <v>1.2952355136</v>
+      </c>
+      <c r="P74">
+        <v>4.7572668864</v>
+      </c>
+      <c r="Q74">
+        <v>5.1872668864</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1725902409308546</v>
+      </c>
+      <c r="T74">
+        <v>3.459539002772343</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.214</v>
+      </c>
+      <c r="W74">
+        <v>0.0177636</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>5.096454979013163</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.06108403025309511</v>
+      </c>
+      <c r="C75">
+        <v>27.93668788937767</v>
+      </c>
+      <c r="D75">
+        <v>91.98068788937768</v>
+      </c>
+      <c r="E75">
+        <v>37.184</v>
+      </c>
+      <c r="F75">
+        <v>66.28400000000001</v>
+      </c>
+      <c r="G75">
+        <v>2.24</v>
+      </c>
+      <c r="H75">
+        <v>61.7</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>7.96</v>
+      </c>
+      <c r="K75">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L75">
+        <v>7.53</v>
+      </c>
+      <c r="M75">
+        <v>1.4980184</v>
+      </c>
+      <c r="N75">
+        <v>6.0319816</v>
+      </c>
+      <c r="O75">
+        <v>1.2908440624</v>
+      </c>
+      <c r="P75">
+        <v>4.7411375376</v>
+      </c>
+      <c r="Q75">
+        <v>5.1711375376</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1782096379744263</v>
+      </c>
+      <c r="T75">
+        <v>3.578594024881914</v>
+      </c>
+      <c r="U75">
+        <v>0.0226</v>
+      </c>
+      <c r="V75">
+        <v>0.214</v>
+      </c>
+      <c r="W75">
+        <v>0.0177636</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>5.02664052724586</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.06105300104555093</v>
+      </c>
+      <c r="C76">
+        <v>27.0818012867441</v>
+      </c>
+      <c r="D76">
+        <v>92.03380128674411</v>
+      </c>
+      <c r="E76">
+        <v>38.09200000000001</v>
+      </c>
+      <c r="F76">
+        <v>67.19200000000001</v>
+      </c>
+      <c r="G76">
+        <v>2.24</v>
+      </c>
+      <c r="H76">
+        <v>61.7</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>7.96</v>
+      </c>
+      <c r="K76">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L76">
+        <v>7.53</v>
+      </c>
+      <c r="M76">
+        <v>1.5185392</v>
+      </c>
+      <c r="N76">
+        <v>6.0114608</v>
+      </c>
+      <c r="O76">
+        <v>1.2864526112</v>
+      </c>
+      <c r="P76">
+        <v>4.7250081888</v>
+      </c>
+      <c r="Q76">
+        <v>5.1550081888</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1842612963290421</v>
+      </c>
+      <c r="T76">
+        <v>3.706807125615298</v>
+      </c>
+      <c r="U76">
+        <v>0.0226</v>
+      </c>
+      <c r="V76">
+        <v>0.214</v>
+      </c>
+      <c r="W76">
+        <v>0.0177636</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>4.958712952553348</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.06102197183800677</v>
+      </c>
+      <c r="C77">
+        <v>26.22697605923096</v>
+      </c>
+      <c r="D77">
+        <v>92.08697605923098</v>
+      </c>
+      <c r="E77">
+        <v>39.00000000000001</v>
+      </c>
+      <c r="F77">
+        <v>68.10000000000001</v>
+      </c>
+      <c r="G77">
+        <v>2.24</v>
+      </c>
+      <c r="H77">
+        <v>61.7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>7.96</v>
+      </c>
+      <c r="K77">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L77">
+        <v>7.53</v>
+      </c>
+      <c r="M77">
+        <v>1.53906</v>
+      </c>
+      <c r="N77">
+        <v>5.99094</v>
+      </c>
+      <c r="O77">
+        <v>1.28206116</v>
+      </c>
+      <c r="P77">
+        <v>4.708878840000001</v>
+      </c>
+      <c r="Q77">
+        <v>5.13887884</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1907970873520271</v>
+      </c>
+      <c r="T77">
+        <v>3.845277274407353</v>
+      </c>
+      <c r="U77">
+        <v>0.0226</v>
+      </c>
+      <c r="V77">
+        <v>0.214</v>
+      </c>
+      <c r="W77">
+        <v>0.0177636</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>4.892596779852637</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.0609909426304626</v>
+      </c>
+      <c r="C78">
+        <v>25.37221231328277</v>
+      </c>
+      <c r="D78">
+        <v>92.14021231328279</v>
+      </c>
+      <c r="E78">
+        <v>39.90800000000001</v>
+      </c>
+      <c r="F78">
+        <v>69.00800000000001</v>
+      </c>
+      <c r="G78">
+        <v>2.24</v>
+      </c>
+      <c r="H78">
+        <v>61.7</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>7.96</v>
+      </c>
+      <c r="K78">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L78">
+        <v>7.53</v>
+      </c>
+      <c r="M78">
+        <v>1.5595808</v>
+      </c>
+      <c r="N78">
+        <v>5.9704192</v>
+      </c>
+      <c r="O78">
+        <v>1.2776697088</v>
+      </c>
+      <c r="P78">
+        <v>4.692749491200001</v>
+      </c>
+      <c r="Q78">
+        <v>5.1227494912</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1978775276269275</v>
+      </c>
+      <c r="T78">
+        <v>3.995286602265413</v>
+      </c>
+      <c r="U78">
+        <v>0.0226</v>
+      </c>
+      <c r="V78">
+        <v>0.214</v>
+      </c>
+      <c r="W78">
+        <v>0.0177636</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>4.828220506433524</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.06095991342291843</v>
+      </c>
+      <c r="C79">
+        <v>24.51751015559016</v>
+      </c>
+      <c r="D79">
+        <v>92.19351015559018</v>
+      </c>
+      <c r="E79">
+        <v>40.81600000000001</v>
+      </c>
+      <c r="F79">
+        <v>69.91600000000001</v>
+      </c>
+      <c r="G79">
+        <v>2.24</v>
+      </c>
+      <c r="H79">
+        <v>61.7</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>7.96</v>
+      </c>
+      <c r="K79">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L79">
+        <v>7.53</v>
+      </c>
+      <c r="M79">
+        <v>1.5801016</v>
+      </c>
+      <c r="N79">
+        <v>5.9498984</v>
+      </c>
+      <c r="O79">
+        <v>1.2732782576</v>
+      </c>
+      <c r="P79">
+        <v>4.6766201424</v>
+      </c>
+      <c r="Q79">
+        <v>5.1066201424</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2055736583605149</v>
+      </c>
+      <c r="T79">
+        <v>4.158340219502434</v>
+      </c>
+      <c r="U79">
+        <v>0.0226</v>
+      </c>
+      <c r="V79">
+        <v>0.214</v>
+      </c>
+      <c r="W79">
+        <v>0.0177636</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>4.765516344012309</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.06092888421537423</v>
+      </c>
+      <c r="C80">
+        <v>23.66286969309088</v>
+      </c>
+      <c r="D80">
+        <v>92.2468696930909</v>
+      </c>
+      <c r="E80">
+        <v>41.72400000000001</v>
+      </c>
+      <c r="F80">
+        <v>70.82400000000001</v>
+      </c>
+      <c r="G80">
+        <v>2.24</v>
+      </c>
+      <c r="H80">
+        <v>61.7</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>7.96</v>
+      </c>
+      <c r="K80">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L80">
+        <v>7.53</v>
+      </c>
+      <c r="M80">
+        <v>1.6006224</v>
+      </c>
+      <c r="N80">
+        <v>5.9293776</v>
+      </c>
+      <c r="O80">
+        <v>1.2688868064</v>
+      </c>
+      <c r="P80">
+        <v>4.6604907936</v>
+      </c>
+      <c r="Q80">
+        <v>5.0904907936</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2139694373426102</v>
+      </c>
+      <c r="T80">
+        <v>4.336216892851911</v>
+      </c>
+      <c r="U80">
+        <v>0.0226</v>
+      </c>
+      <c r="V80">
+        <v>0.214</v>
+      </c>
+      <c r="W80">
+        <v>0.0177636</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>4.704419980627536</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.06089785500783008</v>
+      </c>
+      <c r="C81">
+        <v>22.80829103297029</v>
+      </c>
+      <c r="D81">
+        <v>92.30029103297031</v>
+      </c>
+      <c r="E81">
+        <v>42.63200000000001</v>
+      </c>
+      <c r="F81">
+        <v>71.73200000000001</v>
+      </c>
+      <c r="G81">
+        <v>2.24</v>
+      </c>
+      <c r="H81">
+        <v>61.7</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>7.96</v>
+      </c>
+      <c r="K81">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L81">
+        <v>7.53</v>
+      </c>
+      <c r="M81">
+        <v>1.6211432</v>
+      </c>
+      <c r="N81">
+        <v>5.908856800000001</v>
+      </c>
+      <c r="O81">
+        <v>1.2644953552</v>
+      </c>
+      <c r="P81">
+        <v>4.6443614448</v>
+      </c>
+      <c r="Q81">
+        <v>5.0743614448</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2231648143230004</v>
+      </c>
+      <c r="T81">
+        <v>4.531034201758483</v>
+      </c>
+      <c r="U81">
+        <v>0.0226</v>
+      </c>
+      <c r="V81">
+        <v>0.214</v>
+      </c>
+      <c r="W81">
+        <v>0.0177636</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>4.644870360619592</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.06086682580028589</v>
+      </c>
+      <c r="C82">
+        <v>21.95377428266232</v>
+      </c>
+      <c r="D82">
+        <v>92.35377428266234</v>
+      </c>
+      <c r="E82">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="F82">
+        <v>72.64000000000001</v>
+      </c>
+      <c r="G82">
+        <v>2.24</v>
+      </c>
+      <c r="H82">
+        <v>61.7</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>7.96</v>
+      </c>
+      <c r="K82">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L82">
+        <v>7.53</v>
+      </c>
+      <c r="M82">
+        <v>1.641664</v>
+      </c>
+      <c r="N82">
+        <v>5.888336</v>
+      </c>
+      <c r="O82">
+        <v>1.260103904</v>
+      </c>
+      <c r="P82">
+        <v>4.628232096</v>
+      </c>
+      <c r="Q82">
+        <v>5.058232095999999</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2332797290014295</v>
+      </c>
+      <c r="T82">
+        <v>4.74533324155571</v>
+      </c>
+      <c r="U82">
+        <v>0.0226</v>
+      </c>
+      <c r="V82">
+        <v>0.214</v>
+      </c>
+      <c r="W82">
+        <v>0.0177636</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>4.586809481111847</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.06083579659274172</v>
+      </c>
+      <c r="C83">
+        <v>21.09931954984991</v>
+      </c>
+      <c r="D83">
+        <v>92.40731954984993</v>
+      </c>
+      <c r="E83">
+        <v>44.44800000000001</v>
+      </c>
+      <c r="F83">
+        <v>73.54800000000002</v>
+      </c>
+      <c r="G83">
+        <v>2.24</v>
+      </c>
+      <c r="H83">
+        <v>61.7</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>7.96</v>
+      </c>
+      <c r="K83">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L83">
+        <v>7.53</v>
+      </c>
+      <c r="M83">
+        <v>1.6621848</v>
+      </c>
+      <c r="N83">
+        <v>5.8678152</v>
+      </c>
+      <c r="O83">
+        <v>1.2557124528</v>
+      </c>
+      <c r="P83">
+        <v>4.6121027472</v>
+      </c>
+      <c r="Q83">
+        <v>5.0421027472</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.244459371540746</v>
+      </c>
+      <c r="T83">
+        <v>4.982190075015804</v>
+      </c>
+      <c r="U83">
+        <v>0.0226</v>
+      </c>
+      <c r="V83">
+        <v>0.214</v>
+      </c>
+      <c r="W83">
+        <v>0.0177636</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>4.530182203567255</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1185561914139678</v>
+      </c>
+      <c r="C84">
+        <v>-27.75760284511225</v>
+      </c>
+      <c r="D84">
+        <v>44.45839715488776</v>
+      </c>
+      <c r="E84">
+        <v>45.35600000000002</v>
+      </c>
+      <c r="F84">
+        <v>74.45600000000002</v>
+      </c>
+      <c r="G84">
+        <v>2.24</v>
+      </c>
+      <c r="H84">
+        <v>61.7</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>7.96</v>
+      </c>
+      <c r="K84">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L84">
+        <v>7.53</v>
+      </c>
+      <c r="M84">
+        <v>8.115704000000003</v>
+      </c>
+      <c r="N84">
+        <v>-0.5857040000000024</v>
+      </c>
+      <c r="O84">
+        <v>-0.1253406560000005</v>
+      </c>
+      <c r="P84">
+        <v>-0.4603633440000019</v>
+      </c>
+      <c r="Q84">
+        <v>-0.03036334400000218</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2606839317418184</v>
+      </c>
+      <c r="T84">
+        <v>5.325930757241916</v>
+      </c>
+      <c r="U84">
+        <v>0.109</v>
+      </c>
+      <c r="V84">
+        <v>0.1985557876433147</v>
+      </c>
+      <c r="W84">
+        <v>0.0873574191468787</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.9278307833799752</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1195531914139678</v>
+      </c>
+      <c r="C85">
+        <v>-29.06053003779761</v>
+      </c>
+      <c r="D85">
+        <v>44.0634699622024</v>
+      </c>
+      <c r="E85">
+        <v>46.26400000000002</v>
+      </c>
+      <c r="F85">
+        <v>75.36400000000002</v>
+      </c>
+      <c r="G85">
+        <v>2.24</v>
+      </c>
+      <c r="H85">
+        <v>61.7</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>7.96</v>
+      </c>
+      <c r="K85">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L85">
+        <v>7.53</v>
+      </c>
+      <c r="M85">
+        <v>8.214676000000003</v>
+      </c>
+      <c r="N85">
+        <v>-0.6846760000000023</v>
+      </c>
+      <c r="O85">
+        <v>-0.1465206640000005</v>
+      </c>
+      <c r="P85">
+        <v>-0.5381553360000018</v>
+      </c>
+      <c r="Q85">
+        <v>-0.108155336000002</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2754712218442784</v>
+      </c>
+      <c r="T85">
+        <v>5.639220801785559</v>
+      </c>
+      <c r="U85">
+        <v>0.109</v>
+      </c>
+      <c r="V85">
+        <v>0.1961635492379736</v>
+      </c>
+      <c r="W85">
+        <v>0.08761817313306089</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.9166520992428671</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1205501914139678</v>
+      </c>
+      <c r="C86">
+        <v>-30.35650267405749</v>
+      </c>
+      <c r="D86">
+        <v>43.67549732594252</v>
+      </c>
+      <c r="E86">
+        <v>47.172</v>
+      </c>
+      <c r="F86">
+        <v>76.27200000000001</v>
+      </c>
+      <c r="G86">
+        <v>2.24</v>
+      </c>
+      <c r="H86">
+        <v>61.7</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>7.96</v>
+      </c>
+      <c r="K86">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L86">
+        <v>7.53</v>
+      </c>
+      <c r="M86">
+        <v>8.313648000000001</v>
+      </c>
+      <c r="N86">
+        <v>-0.7836480000000003</v>
+      </c>
+      <c r="O86">
+        <v>-0.1677006720000001</v>
+      </c>
+      <c r="P86">
+        <v>-0.6159473280000003</v>
+      </c>
+      <c r="Q86">
+        <v>-0.1859473280000006</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2921069232095456</v>
+      </c>
+      <c r="T86">
+        <v>5.991672101897153</v>
+      </c>
+      <c r="U86">
+        <v>0.109</v>
+      </c>
+      <c r="V86">
+        <v>0.1938282688899025</v>
+      </c>
+      <c r="W86">
+        <v>0.08787271869100063</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.9057395742518808</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1215471914139678</v>
+      </c>
+      <c r="C87">
+        <v>-31.64570285220634</v>
+      </c>
+      <c r="D87">
+        <v>43.29429714779366</v>
+      </c>
+      <c r="E87">
+        <v>48.08000000000001</v>
+      </c>
+      <c r="F87">
+        <v>77.18000000000001</v>
+      </c>
+      <c r="G87">
+        <v>2.24</v>
+      </c>
+      <c r="H87">
+        <v>61.7</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>7.96</v>
+      </c>
+      <c r="K87">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L87">
+        <v>7.53</v>
+      </c>
+      <c r="M87">
+        <v>8.41262</v>
+      </c>
+      <c r="N87">
+        <v>-0.8826200000000002</v>
+      </c>
+      <c r="O87">
+        <v>-0.18888068</v>
+      </c>
+      <c r="P87">
+        <v>-0.6937393200000002</v>
+      </c>
+      <c r="Q87">
+        <v>-0.2637393200000004</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3109607180901819</v>
+      </c>
+      <c r="T87">
+        <v>6.391116908690296</v>
+      </c>
+      <c r="U87">
+        <v>0.109</v>
+      </c>
+      <c r="V87">
+        <v>0.1915479363147272</v>
+      </c>
+      <c r="W87">
+        <v>0.08812127494169474</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.8950838145547998</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1225441914139678</v>
+      </c>
+      <c r="C88">
+        <v>-32.92830636814252</v>
+      </c>
+      <c r="D88">
+        <v>42.91969363185748</v>
+      </c>
+      <c r="E88">
+        <v>48.98800000000001</v>
+      </c>
+      <c r="F88">
+        <v>78.08800000000001</v>
+      </c>
+      <c r="G88">
+        <v>2.24</v>
+      </c>
+      <c r="H88">
+        <v>61.7</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>7.96</v>
+      </c>
+      <c r="K88">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L88">
+        <v>7.53</v>
+      </c>
+      <c r="M88">
+        <v>8.511592</v>
+      </c>
+      <c r="N88">
+        <v>-0.981592</v>
+      </c>
+      <c r="O88">
+        <v>-0.210060688</v>
+      </c>
+      <c r="P88">
+        <v>-0.771531312</v>
+      </c>
+      <c r="Q88">
+        <v>-0.3415313120000003</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3325079122394807</v>
+      </c>
+      <c r="T88">
+        <v>6.847625259311032</v>
+      </c>
+      <c r="U88">
+        <v>0.109</v>
+      </c>
+      <c r="V88">
+        <v>0.1893206347296722</v>
+      </c>
+      <c r="W88">
+        <v>0.08836405081446573</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.8846758632227673</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1235411914139678</v>
+      </c>
+      <c r="C89">
+        <v>-34.20448298566728</v>
+      </c>
+      <c r="D89">
+        <v>42.55151701433273</v>
+      </c>
+      <c r="E89">
+        <v>49.89600000000001</v>
+      </c>
+      <c r="F89">
+        <v>78.99600000000001</v>
+      </c>
+      <c r="G89">
+        <v>2.24</v>
+      </c>
+      <c r="H89">
+        <v>61.7</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>7.96</v>
+      </c>
+      <c r="K89">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L89">
+        <v>7.53</v>
+      </c>
+      <c r="M89">
+        <v>8.610564</v>
+      </c>
+      <c r="N89">
+        <v>-1.080564</v>
+      </c>
+      <c r="O89">
+        <v>-0.231240696</v>
+      </c>
+      <c r="P89">
+        <v>-0.8493233039999999</v>
+      </c>
+      <c r="Q89">
+        <v>-0.4193233040000002</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3573700593348254</v>
+      </c>
+      <c r="T89">
+        <v>7.374365663873419</v>
+      </c>
+      <c r="U89">
+        <v>0.109</v>
+      </c>
+      <c r="V89">
+        <v>0.1871445354799058</v>
+      </c>
+      <c r="W89">
+        <v>0.08860124563269027</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.874507175139747</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1245381914139678</v>
+      </c>
+      <c r="C90">
+        <v>-35.47439669300908</v>
+      </c>
+      <c r="D90">
+        <v>42.18960330699093</v>
+      </c>
+      <c r="E90">
+        <v>50.80400000000001</v>
+      </c>
+      <c r="F90">
+        <v>79.90400000000001</v>
+      </c>
+      <c r="G90">
+        <v>2.24</v>
+      </c>
+      <c r="H90">
+        <v>61.7</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>7.96</v>
+      </c>
+      <c r="K90">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L90">
+        <v>7.53</v>
+      </c>
+      <c r="M90">
+        <v>8.709536000000002</v>
+      </c>
+      <c r="N90">
+        <v>-1.179536000000001</v>
+      </c>
+      <c r="O90">
+        <v>-0.2524207040000003</v>
+      </c>
+      <c r="P90">
+        <v>-0.9271152960000011</v>
+      </c>
+      <c r="Q90">
+        <v>-0.4971152960000014</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3863758976127276</v>
+      </c>
+      <c r="T90">
+        <v>7.988896135862873</v>
+      </c>
+      <c r="U90">
+        <v>0.109</v>
+      </c>
+      <c r="V90">
+        <v>0.1850178930312705</v>
+      </c>
+      <c r="W90">
+        <v>0.08883304965959152</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.8645695936040678</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1255351914139679</v>
+      </c>
+      <c r="C91">
+        <v>-36.73820594636716</v>
+      </c>
+      <c r="D91">
+        <v>41.83379405363285</v>
+      </c>
+      <c r="E91">
+        <v>51.71200000000001</v>
+      </c>
+      <c r="F91">
+        <v>80.81200000000001</v>
+      </c>
+      <c r="G91">
+        <v>2.24</v>
+      </c>
+      <c r="H91">
+        <v>61.7</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>7.96</v>
+      </c>
+      <c r="K91">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L91">
+        <v>7.53</v>
+      </c>
+      <c r="M91">
+        <v>8.808508000000002</v>
+      </c>
+      <c r="N91">
+        <v>-1.278508000000001</v>
+      </c>
+      <c r="O91">
+        <v>-0.2736007120000003</v>
+      </c>
+      <c r="P91">
+        <v>-1.004907288000001</v>
+      </c>
+      <c r="Q91">
+        <v>-0.5749072880000012</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.42065552466843</v>
+      </c>
+      <c r="T91">
+        <v>8.715159420941315</v>
+      </c>
+      <c r="U91">
+        <v>0.109</v>
+      </c>
+      <c r="V91">
+        <v>0.1829390403005821</v>
+      </c>
+      <c r="W91">
+        <v>0.08905964460723656</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.854855328507393</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1265321914139678</v>
+      </c>
+      <c r="C92">
+        <v>-37.99606390123468</v>
+      </c>
+      <c r="D92">
+        <v>41.48393609876533</v>
+      </c>
+      <c r="E92">
+        <v>52.62000000000001</v>
+      </c>
+      <c r="F92">
+        <v>81.72000000000001</v>
+      </c>
+      <c r="G92">
+        <v>2.24</v>
+      </c>
+      <c r="H92">
+        <v>61.7</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>7.96</v>
+      </c>
+      <c r="K92">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L92">
+        <v>7.53</v>
+      </c>
+      <c r="M92">
+        <v>8.907480000000001</v>
+      </c>
+      <c r="N92">
+        <v>-1.377480000000001</v>
+      </c>
+      <c r="O92">
+        <v>-0.2947807200000002</v>
+      </c>
+      <c r="P92">
+        <v>-1.082699280000001</v>
+      </c>
+      <c r="Q92">
+        <v>-0.6526992800000011</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4617910771352731</v>
+      </c>
+      <c r="T92">
+        <v>9.586675363035448</v>
+      </c>
+      <c r="U92">
+        <v>0.109</v>
+      </c>
+      <c r="V92">
+        <v>0.1809063842972423</v>
+      </c>
+      <c r="W92">
+        <v>0.08928120411160059</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.8453569359684219</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1275291914139678</v>
+      </c>
+      <c r="C93">
+        <v>-39.24811863221068</v>
+      </c>
+      <c r="D93">
+        <v>41.13988136778934</v>
+      </c>
+      <c r="E93">
+        <v>53.52800000000001</v>
+      </c>
+      <c r="F93">
+        <v>82.62800000000001</v>
+      </c>
+      <c r="G93">
+        <v>2.24</v>
+      </c>
+      <c r="H93">
+        <v>61.7</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>7.96</v>
+      </c>
+      <c r="K93">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L93">
+        <v>7.53</v>
+      </c>
+      <c r="M93">
+        <v>9.006452000000001</v>
+      </c>
+      <c r="N93">
+        <v>-1.476452000000001</v>
+      </c>
+      <c r="O93">
+        <v>-0.3159607280000002</v>
+      </c>
+      <c r="P93">
+        <v>-1.160491272000001</v>
+      </c>
+      <c r="Q93">
+        <v>-0.730491272000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5120678634836369</v>
+      </c>
+      <c r="T93">
+        <v>10.65186151448383</v>
+      </c>
+      <c r="U93">
+        <v>0.109</v>
+      </c>
+      <c r="V93">
+        <v>0.1789184020522177</v>
+      </c>
+      <c r="W93">
+        <v>0.08949789417630828</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.8360672993094282</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1285261914139678</v>
+      </c>
+      <c r="C94">
+        <v>-40.4945133419636</v>
+      </c>
+      <c r="D94">
+        <v>40.80148665803642</v>
+      </c>
+      <c r="E94">
+        <v>54.43600000000001</v>
+      </c>
+      <c r="F94">
+        <v>83.53600000000002</v>
+      </c>
+      <c r="G94">
+        <v>2.24</v>
+      </c>
+      <c r="H94">
+        <v>61.7</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>7.96</v>
+      </c>
+      <c r="K94">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L94">
+        <v>7.53</v>
+      </c>
+      <c r="M94">
+        <v>9.105424000000001</v>
+      </c>
+      <c r="N94">
+        <v>-1.575424000000001</v>
+      </c>
+      <c r="O94">
+        <v>-0.3371407360000002</v>
+      </c>
+      <c r="P94">
+        <v>-1.238283264000001</v>
+      </c>
+      <c r="Q94">
+        <v>-0.8082832640000008</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5749138464190916</v>
+      </c>
+      <c r="T94">
+        <v>11.98334420379432</v>
+      </c>
+      <c r="U94">
+        <v>0.109</v>
+      </c>
+      <c r="V94">
+        <v>0.1769736368125197</v>
+      </c>
+      <c r="W94">
+        <v>0.08970987358743536</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.8269796112734563</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1295231914139678</v>
+      </c>
+      <c r="C95">
+        <v>-41.73538655996627</v>
+      </c>
+      <c r="D95">
+        <v>40.46861344003374</v>
+      </c>
+      <c r="E95">
+        <v>55.34400000000002</v>
+      </c>
+      <c r="F95">
+        <v>84.44400000000002</v>
+      </c>
+      <c r="G95">
+        <v>2.24</v>
+      </c>
+      <c r="H95">
+        <v>61.7</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>7.96</v>
+      </c>
+      <c r="K95">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L95">
+        <v>7.53</v>
+      </c>
+      <c r="M95">
+        <v>9.204396000000003</v>
+      </c>
+      <c r="N95">
+        <v>-1.674396000000002</v>
+      </c>
+      <c r="O95">
+        <v>-0.3583207440000005</v>
+      </c>
+      <c r="P95">
+        <v>-1.316075256000002</v>
+      </c>
+      <c r="Q95">
+        <v>-0.8860752560000023</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6557158244789619</v>
+      </c>
+      <c r="T95">
+        <v>13.69525051862208</v>
+      </c>
+      <c r="U95">
+        <v>0.109</v>
+      </c>
+      <c r="V95">
+        <v>0.1750706944812022</v>
+      </c>
+      <c r="W95">
+        <v>0.08991729430154896</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.8180873573887953</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1305201914139678</v>
+      </c>
+      <c r="C96">
+        <v>-42.97087233158116</v>
+      </c>
+      <c r="D96">
+        <v>40.14112766841885</v>
+      </c>
+      <c r="E96">
+        <v>56.25200000000002</v>
+      </c>
+      <c r="F96">
+        <v>85.35200000000002</v>
+      </c>
+      <c r="G96">
+        <v>2.24</v>
+      </c>
+      <c r="H96">
+        <v>61.7</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>7.96</v>
+      </c>
+      <c r="K96">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L96">
+        <v>7.53</v>
+      </c>
+      <c r="M96">
+        <v>9.303368000000003</v>
+      </c>
+      <c r="N96">
+        <v>-1.773368000000002</v>
+      </c>
+      <c r="O96">
+        <v>-0.3795007520000005</v>
+      </c>
+      <c r="P96">
+        <v>-1.393867248000002</v>
+      </c>
+      <c r="Q96">
+        <v>-0.9638672480000021</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7634517952254558</v>
+      </c>
+      <c r="T96">
+        <v>15.97779227172576</v>
+      </c>
+      <c r="U96">
+        <v>0.109</v>
+      </c>
+      <c r="V96">
+        <v>0.1732082402845937</v>
+      </c>
+      <c r="W96">
+        <v>0.09012030180897929</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.8093843003952975</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1315171914139678</v>
+      </c>
+      <c r="C97">
+        <v>-44.20110039803884</v>
+      </c>
+      <c r="D97">
+        <v>39.81889960196118</v>
+      </c>
+      <c r="E97">
+        <v>57.16000000000002</v>
+      </c>
+      <c r="F97">
+        <v>86.26000000000002</v>
+      </c>
+      <c r="G97">
+        <v>2.24</v>
+      </c>
+      <c r="H97">
+        <v>61.7</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>7.96</v>
+      </c>
+      <c r="K97">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L97">
+        <v>7.53</v>
+      </c>
+      <c r="M97">
+        <v>9.402340000000002</v>
+      </c>
+      <c r="N97">
+        <v>-1.872340000000002</v>
+      </c>
+      <c r="O97">
+        <v>-0.4006807600000005</v>
+      </c>
+      <c r="P97">
+        <v>-1.471659240000002</v>
+      </c>
+      <c r="Q97">
+        <v>-1.041659240000002</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9142821542705473</v>
+      </c>
+      <c r="T97">
+        <v>19.17335072607092</v>
+      </c>
+      <c r="U97">
+        <v>0.109</v>
+      </c>
+      <c r="V97">
+        <v>0.171384995650019</v>
+      </c>
+      <c r="W97">
+        <v>0.09031903547414794</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.8008644656542944</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1644245488058161</v>
+      </c>
+      <c r="C98">
+        <v>-53.44948203372959</v>
+      </c>
+      <c r="D98">
+        <v>31.47851796627041</v>
+      </c>
+      <c r="E98">
+        <v>58.068</v>
+      </c>
+      <c r="F98">
+        <v>87.16800000000001</v>
+      </c>
+      <c r="G98">
+        <v>2.24</v>
+      </c>
+      <c r="H98">
+        <v>61.7</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>7.96</v>
+      </c>
+      <c r="K98">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L98">
+        <v>7.53</v>
+      </c>
+      <c r="M98">
+        <v>12.2209536</v>
+      </c>
+      <c r="N98">
+        <v>-4.690953599999999</v>
+      </c>
+      <c r="O98">
+        <v>-1.0038640704</v>
+      </c>
+      <c r="P98">
+        <v>-3.6870895296</v>
+      </c>
+      <c r="Q98">
+        <v>-3.2570895296</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.189486627634389</v>
+      </c>
+      <c r="T98">
+        <v>25.00395397530484</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.1318571408371929</v>
+      </c>
+      <c r="W98">
+        <v>0.1217136288546255</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.6161548637252007</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1657335488058161</v>
+      </c>
+      <c r="C99">
+        <v>-54.6175902580748</v>
+      </c>
+      <c r="D99">
+        <v>31.21840974192521</v>
+      </c>
+      <c r="E99">
+        <v>58.97600000000001</v>
+      </c>
+      <c r="F99">
+        <v>88.07600000000001</v>
+      </c>
+      <c r="G99">
+        <v>2.24</v>
+      </c>
+      <c r="H99">
+        <v>61.7</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>7.96</v>
+      </c>
+      <c r="K99">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L99">
+        <v>7.53</v>
+      </c>
+      <c r="M99">
+        <v>12.3482552</v>
+      </c>
+      <c r="N99">
+        <v>-4.8182552</v>
+      </c>
+      <c r="O99">
+        <v>-1.0311066128</v>
+      </c>
+      <c r="P99">
+        <v>-3.7871485872</v>
+      </c>
+      <c r="Q99">
+        <v>-3.357148587200001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.582882170179185</v>
+      </c>
+      <c r="T99">
+        <v>33.33860530040646</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.1304977888697992</v>
+      </c>
+      <c r="W99">
+        <v>0.1219042100004541</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.6098027517280336</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1670425488058161</v>
+      </c>
+      <c r="C100">
+        <v>-55.78143514172178</v>
+      </c>
+      <c r="D100">
+        <v>30.96256485827823</v>
+      </c>
+      <c r="E100">
+        <v>59.88400000000001</v>
+      </c>
+      <c r="F100">
+        <v>88.98400000000001</v>
+      </c>
+      <c r="G100">
+        <v>2.24</v>
+      </c>
+      <c r="H100">
+        <v>61.7</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>7.96</v>
+      </c>
+      <c r="K100">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L100">
+        <v>7.53</v>
+      </c>
+      <c r="M100">
+        <v>12.4755568</v>
+      </c>
+      <c r="N100">
+        <v>-4.945556799999999</v>
+      </c>
+      <c r="O100">
+        <v>-1.0583491552</v>
+      </c>
+      <c r="P100">
+        <v>-3.887207644799999</v>
+      </c>
+      <c r="Q100">
+        <v>-3.4572076448</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.369673255268777</v>
+      </c>
+      <c r="T100">
+        <v>50.00790795060968</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.129166178779291</v>
+      </c>
+      <c r="W100">
+        <v>0.1220909017351434</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.6035802746695843</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1683515488058161</v>
+      </c>
+      <c r="C101">
+        <v>-56.94112065096787</v>
+      </c>
+      <c r="D101">
+        <v>30.71087934903213</v>
+      </c>
+      <c r="E101">
+        <v>60.79200000000001</v>
+      </c>
+      <c r="F101">
+        <v>89.89200000000001</v>
+      </c>
+      <c r="G101">
+        <v>2.24</v>
+      </c>
+      <c r="H101">
+        <v>61.7</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>7.96</v>
+      </c>
+      <c r="K101">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="L101">
+        <v>7.53</v>
+      </c>
+      <c r="M101">
+        <v>12.6028584</v>
+      </c>
+      <c r="N101">
+        <v>-5.0728584</v>
+      </c>
+      <c r="O101">
+        <v>-1.0855916976</v>
+      </c>
+      <c r="P101">
+        <v>-3.9872667024</v>
+      </c>
+      <c r="Q101">
+        <v>-3.557266702400001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.730046510537553</v>
+      </c>
+      <c r="T101">
+        <v>100.0158159012194</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.1278614699027325</v>
+      </c>
+      <c r="W101">
+        <v>0.1222738219196369</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.5974835042183764</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
